--- a/test/manual_mlob.xlsx
+++ b/test/manual_mlob.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8715" tabRatio="717" activeTab="7"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="input" sheetId="1" r:id="rId1"/>
     <sheet name="get_abs_axle_loc" sheetId="2" r:id="rId2"/>
     <sheet name="move_alxe_loc" sheetId="3" r:id="rId3"/>
     <sheet name="calc_load_and_location" sheetId="4" r:id="rId4"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>direction</t>
-  </si>
-  <si>
-    <t>ltr</t>
   </si>
   <si>
     <t>(ltr or rtl)</t>
@@ -177,6 +174,9 @@
     <t>calc_shear</t>
   </si>
   <si>
+    <t>rtl</t>
+  </si>
+  <si>
     <t>Ve</t>
   </si>
   <si>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -343,6 +343,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,7 +666,7 @@
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O44" sqref="O44"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -672,15 +675,15 @@
       <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C3">
-        <v>75</v>
+      <c r="C3" s="22">
+        <v>125</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="22">
         <v>0</v>
       </c>
     </row>
@@ -688,7 +691,7 @@
       <c r="B5" t="s">
         <v>55</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="22">
         <v>100</v>
       </c>
     </row>
@@ -696,7 +699,7 @@
       <c r="B6" t="s">
         <v>56</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="22">
         <v>100</v>
       </c>
     </row>
@@ -704,7 +707,7 @@
       <c r="B7" t="s">
         <v>57</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="22">
         <v>150</v>
       </c>
     </row>
@@ -712,8 +715,8 @@
       <c r="B8" t="s">
         <v>2</v>
       </c>
-      <c r="C8" t="s">
-        <v>3</v>
+      <c r="C8" s="22" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -744,8 +747,8 @@
         <v>1</v>
       </c>
       <c r="C2" s="2">
-        <f>Sheet1!C3</f>
-        <v>75</v>
+        <f>input!C3</f>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -753,25 +756,25 @@
         <v>2</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -787,7 +790,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D22" si="0">IF($C$3="ltr",$C$2-C5, $C$2+C5)</f>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -803,7 +806,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>67</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -819,7 +822,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>62</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -835,7 +838,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>57</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -851,7 +854,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>52</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -867,7 +870,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>43</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -883,7 +886,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>38</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -899,7 +902,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -915,7 +918,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>27</v>
+        <v>173</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -931,7 +934,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>19</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -947,7 +950,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -963,7 +966,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -979,7 +982,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>199</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -995,7 +998,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>-4</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1011,7 +1014,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>-13</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1027,7 +1030,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>-18</v>
+        <v>218</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1043,7 +1046,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>-24</v>
+        <v>224</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1059,7 +1062,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>-29</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -1083,66 +1086,66 @@
   <sheetData>
     <row r="1" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:59" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3">
         <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I2" s="3">
         <v>3</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O2" s="3">
         <v>4</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="U2" s="3">
         <v>5</v>
       </c>
       <c r="Z2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AA2" s="3">
         <v>6</v>
       </c>
       <c r="AF2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG2" s="3">
         <v>7</v>
       </c>
       <c r="AL2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM2" s="3">
         <v>8</v>
       </c>
       <c r="AR2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AS2" s="3">
         <v>9</v>
       </c>
       <c r="AX2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY2" s="3">
         <v>10</v>
       </c>
       <c r="BD2" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BE2" s="3">
         <v>11</v>
@@ -1153,253 +1156,253 @@
         <v>2</v>
       </c>
       <c r="C3" s="3" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="I3" s="3" t="str">
         <f>C3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="O3" s="3" t="str">
         <f>I3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="P3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="T3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="U3" s="3" t="str">
         <f>O3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="V3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="Z3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AA3" s="3" t="str">
         <f>U3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AB3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AG3" s="3" t="str">
         <f>AA3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AL3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AM3" s="3" t="str">
         <f>AG3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AN3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AS3" s="3" t="str">
         <f>AM3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AT3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="AY3" s="3" t="str">
         <f>AS3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="AZ3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BD3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="BE3" s="3" t="str">
         <f>AY3</f>
-        <v>ltr</v>
+        <v>rtl</v>
       </c>
       <c r="BF3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="G4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="M4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="P4" s="1" t="s">
+      <c r="Q4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="Q4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="S4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="V4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="V4" s="1" t="s">
+      <c r="W4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="W4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="Y4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="Z4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AA4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AB4" s="1" t="s">
+      <c r="AC4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AC4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AE4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AH4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AF4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AG4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AH4" s="1" t="s">
+      <c r="AI4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AI4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AK4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AN4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AL4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AN4" s="1" t="s">
+      <c r="AO4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AO4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AQ4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AS4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AT4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AR4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AS4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT4" s="1" t="s">
+      <c r="AU4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="AU4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="AW4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AY4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AZ4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="AX4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AY4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AZ4" s="1" t="s">
+      <c r="BA4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="BA4" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="BC4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BE4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BF4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="BD4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="BE4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="BF4" s="1" t="s">
+      <c r="BG4" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="BG4" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:59" x14ac:dyDescent="0.25">
@@ -1414,11 +1417,11 @@
       </c>
       <c r="D5" s="4">
         <f>get_abs_axle_loc!D5</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E22" ca="1" si="0">IF(C$3="ltr",D5+INDIRECT(CONCATENATE("C",C$2-1+5)),D5-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1431,11 +1434,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J22" ca="1" si="1">E5</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K22" ca="1" si="2">IF(I$3="ltr",J5+INDIRECT(CONCATENATE("C",I$2-1+5)),J5-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1448,11 +1451,11 @@
       </c>
       <c r="P5" s="1">
         <f t="shared" ref="P5:P22" ca="1" si="3">K5</f>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ref="Q5:Q22" ca="1" si="4">IF(O$3="ltr",P5+INDIRECT(CONCATENATE("C",O$2-1+5)),P5-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1465,11 +1468,11 @@
       </c>
       <c r="V5" s="1">
         <f t="shared" ref="V5:V22" ca="1" si="5">Q5</f>
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" ref="W5:W22" ca="1" si="6">IF(U$3="ltr",V5+INDIRECT(CONCATENATE("C",U$2-1+5)),V5-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1482,11 +1485,11 @@
       </c>
       <c r="AB5" s="1">
         <f t="shared" ref="AB5:AB22" ca="1" si="7">W5</f>
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ref="AC5:AC22" ca="1" si="8">IF(AA$3="ltr",AB5+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB5-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -1499,11 +1502,11 @@
       </c>
       <c r="AH5" s="1">
         <f t="shared" ref="AH5:AH22" ca="1" si="9">AC5</f>
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="AI5" s="1">
         <f t="shared" ref="AI5:AI22" ca="1" si="10">IF(AG$3="ltr",AH5+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH5-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1516,11 +1519,11 @@
       </c>
       <c r="AN5" s="1">
         <f t="shared" ref="AN5:AN22" ca="1" si="11">AI5</f>
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="AO5" s="1">
         <f t="shared" ref="AO5:AO22" ca="1" si="12">IF(AM$3="ltr",AN5+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN5-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AQ5" s="1">
         <v>0</v>
@@ -1533,11 +1536,11 @@
       </c>
       <c r="AT5" s="1">
         <f t="shared" ref="AT5:AT22" ca="1" si="13">AO5</f>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="AU5" s="1">
         <f t="shared" ref="AU5:AU22" ca="1" si="14">IF(AS$3="ltr",AT5+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT5-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1550,11 +1553,11 @@
       </c>
       <c r="AZ5" s="1">
         <f t="shared" ref="AZ5:AZ22" ca="1" si="15">AU5</f>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="BA5" s="1">
         <f t="shared" ref="BA5:BA22" ca="1" si="16">IF(AY$3="ltr",AZ5+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ5-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -1567,11 +1570,11 @@
       </c>
       <c r="BF5" s="1">
         <f t="shared" ref="BF5:BF22" ca="1" si="17">BA5</f>
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="BG5" s="1">
         <f t="shared" ref="BG5:BG22" ca="1" si="18">IF(BE$3="ltr",BF5+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF5-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>139</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:59" x14ac:dyDescent="0.25">
@@ -1586,11 +1589,11 @@
       </c>
       <c r="D6" s="4">
         <f>get_abs_axle_loc!D6</f>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1603,11 +1606,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1620,11 +1623,11 @@
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -1637,11 +1640,11 @@
       </c>
       <c r="V6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="Y6" s="1">
         <v>1</v>
@@ -1654,11 +1657,11 @@
       </c>
       <c r="AB6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AE6" s="1">
         <v>1</v>
@@ -1671,11 +1674,11 @@
       </c>
       <c r="AH6" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AI6" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AK6" s="1">
         <v>1</v>
@@ -1688,11 +1691,11 @@
       </c>
       <c r="AN6" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="AO6" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AQ6" s="1">
         <v>1</v>
@@ -1705,11 +1708,11 @@
       </c>
       <c r="AT6" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="AW6" s="1">
         <v>1</v>
@@ -1722,11 +1725,11 @@
       </c>
       <c r="AZ6" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="BA6" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="BC6" s="1">
         <v>1</v>
@@ -1739,11 +1742,11 @@
       </c>
       <c r="BF6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="BG6" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>131</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:59" x14ac:dyDescent="0.25">
@@ -1758,11 +1761,11 @@
       </c>
       <c r="D7" s="4">
         <f>get_abs_axle_loc!D7</f>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1775,11 +1778,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -1792,11 +1795,11 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
@@ -1809,11 +1812,11 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="Y7" s="1">
         <v>2</v>
@@ -1826,11 +1829,11 @@
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AE7" s="1">
         <v>2</v>
@@ -1843,11 +1846,11 @@
       </c>
       <c r="AH7" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AI7" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AK7" s="1">
         <v>2</v>
@@ -1860,11 +1863,11 @@
       </c>
       <c r="AN7" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AO7" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AQ7" s="1">
         <v>2</v>
@@ -1877,11 +1880,11 @@
       </c>
       <c r="AT7" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="AW7" s="1">
         <v>2</v>
@@ -1894,11 +1897,11 @@
       </c>
       <c r="AZ7" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="BA7" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="BC7" s="1">
         <v>2</v>
@@ -1911,11 +1914,11 @@
       </c>
       <c r="BF7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="BG7" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>126</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:59" x14ac:dyDescent="0.25">
@@ -1930,11 +1933,11 @@
       </c>
       <c r="D8" s="4">
         <f>get_abs_axle_loc!D8</f>
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1947,11 +1950,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
@@ -1964,11 +1967,11 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="S8" s="1">
         <v>3</v>
@@ -1981,11 +1984,11 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="Y8" s="1">
         <v>3</v>
@@ -1998,11 +2001,11 @@
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="AE8" s="1">
         <v>3</v>
@@ -2015,11 +2018,11 @@
       </c>
       <c r="AH8" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="AI8" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AK8" s="1">
         <v>3</v>
@@ -2032,7 +2035,7 @@
       </c>
       <c r="AN8" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="AO8" s="1">
         <f t="shared" ca="1" si="12"/>
@@ -2053,7 +2056,7 @@
       </c>
       <c r="AU8" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="AW8" s="1">
         <v>3</v>
@@ -2066,11 +2069,11 @@
       </c>
       <c r="AZ8" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>105</v>
+        <v>95</v>
       </c>
       <c r="BA8" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="BC8" s="1">
         <v>3</v>
@@ -2083,11 +2086,11 @@
       </c>
       <c r="BF8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="BG8" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>121</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:59" x14ac:dyDescent="0.25">
@@ -2102,11 +2105,11 @@
       </c>
       <c r="D9" s="4">
         <f>get_abs_axle_loc!D9</f>
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2119,11 +2122,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
@@ -2136,11 +2139,11 @@
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>65</v>
+        <v>135</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
@@ -2153,11 +2156,11 @@
       </c>
       <c r="V9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="Y9" s="1">
         <v>4</v>
@@ -2170,11 +2173,11 @@
       </c>
       <c r="AB9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="AE9" s="1">
         <v>4</v>
@@ -2187,11 +2190,11 @@
       </c>
       <c r="AH9" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>84</v>
+        <v>116</v>
       </c>
       <c r="AI9" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="AK9" s="1">
         <v>4</v>
@@ -2204,11 +2207,11 @@
       </c>
       <c r="AN9" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="AO9" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AQ9" s="1">
         <v>4</v>
@@ -2221,7 +2224,7 @@
       </c>
       <c r="AT9" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" ca="1" si="14"/>
@@ -2242,7 +2245,7 @@
       </c>
       <c r="BA9" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="BC9" s="1">
         <v>4</v>
@@ -2255,11 +2258,11 @@
       </c>
       <c r="BF9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="BG9" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>116</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:59" x14ac:dyDescent="0.25">
@@ -2274,11 +2277,11 @@
       </c>
       <c r="D10" s="4">
         <f>get_abs_axle_loc!D10</f>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -2291,11 +2294,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="M10" s="1">
         <v>5</v>
@@ -2308,11 +2311,11 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
@@ -2325,11 +2328,11 @@
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="Y10" s="1">
         <v>5</v>
@@ -2342,11 +2345,11 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>66</v>
+        <v>134</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AE10" s="1">
         <v>5</v>
@@ -2359,11 +2362,11 @@
       </c>
       <c r="AH10" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AI10" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AK10" s="1">
         <v>5</v>
@@ -2376,11 +2379,11 @@
       </c>
       <c r="AN10" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AO10" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="AQ10" s="1">
         <v>5</v>
@@ -2393,11 +2396,11 @@
       </c>
       <c r="AT10" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="AU10" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="AW10" s="1">
         <v>5</v>
@@ -2410,11 +2413,11 @@
       </c>
       <c r="AZ10" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="BA10" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BC10" s="1">
         <v>5</v>
@@ -2427,11 +2430,11 @@
       </c>
       <c r="BF10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="BG10" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>107</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:59" x14ac:dyDescent="0.25">
@@ -2446,11 +2449,11 @@
       </c>
       <c r="D11" s="4">
         <f>get_abs_axle_loc!D11</f>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -2463,11 +2466,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>46</v>
+        <v>154</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="M11" s="1">
         <v>6</v>
@@ -2480,11 +2483,11 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="S11" s="1">
         <v>6</v>
@@ -2497,11 +2500,11 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="Y11" s="1">
         <v>6</v>
@@ -2514,11 +2517,11 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>61</v>
+        <v>139</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AE11" s="1">
         <v>6</v>
@@ -2531,11 +2534,11 @@
       </c>
       <c r="AH11" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AI11" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AK11" s="1">
         <v>6</v>
@@ -2548,11 +2551,11 @@
       </c>
       <c r="AN11" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AO11" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AQ11" s="1">
         <v>6</v>
@@ -2565,11 +2568,11 @@
       </c>
       <c r="AT11" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>81</v>
+        <v>119</v>
       </c>
       <c r="AU11" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="AW11" s="1">
         <v>6</v>
@@ -2582,11 +2585,11 @@
       </c>
       <c r="AZ11" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>86</v>
+        <v>114</v>
       </c>
       <c r="BA11" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="BC11" s="1">
         <v>6</v>
@@ -2599,11 +2602,11 @@
       </c>
       <c r="BF11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="BG11" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:59" x14ac:dyDescent="0.25">
@@ -2618,11 +2621,11 @@
       </c>
       <c r="D12" s="4">
         <f>get_abs_axle_loc!D12</f>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="G12" s="1">
         <v>7</v>
@@ -2635,11 +2638,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="M12" s="1">
         <v>7</v>
@@ -2652,11 +2655,11 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="S12" s="1">
         <v>7</v>
@@ -2669,11 +2672,11 @@
       </c>
       <c r="V12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="Y12" s="1">
         <v>7</v>
@@ -2686,11 +2689,11 @@
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>55</v>
+        <v>145</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AE12" s="1">
         <v>7</v>
@@ -2703,11 +2706,11 @@
       </c>
       <c r="AH12" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AI12" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="AK12" s="1">
         <v>7</v>
@@ -2720,11 +2723,11 @@
       </c>
       <c r="AN12" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>69</v>
+        <v>131</v>
       </c>
       <c r="AO12" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AQ12" s="1">
         <v>7</v>
@@ -2737,11 +2740,11 @@
       </c>
       <c r="AT12" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AU12" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="AW12" s="1">
         <v>7</v>
@@ -2754,11 +2757,11 @@
       </c>
       <c r="AZ12" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>80</v>
+        <v>120</v>
       </c>
       <c r="BA12" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="BC12" s="1">
         <v>7</v>
@@ -2771,11 +2774,11 @@
       </c>
       <c r="BF12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="BG12" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>96</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:59" x14ac:dyDescent="0.25">
@@ -2790,11 +2793,11 @@
       </c>
       <c r="D13" s="4">
         <f>get_abs_axle_loc!D13</f>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="G13" s="1">
         <v>8</v>
@@ -2807,11 +2810,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="M13" s="1">
         <v>8</v>
@@ -2824,11 +2827,11 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>40</v>
+        <v>160</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="S13" s="1">
         <v>8</v>
@@ -2841,11 +2844,11 @@
       </c>
       <c r="V13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>45</v>
+        <v>155</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -2858,11 +2861,11 @@
       </c>
       <c r="AB13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>50</v>
+        <v>150</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="AE13" s="1">
         <v>8</v>
@@ -2875,11 +2878,11 @@
       </c>
       <c r="AH13" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="AI13" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AK13" s="1">
         <v>8</v>
@@ -2892,11 +2895,11 @@
       </c>
       <c r="AN13" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>64</v>
+        <v>136</v>
       </c>
       <c r="AO13" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AQ13" s="1">
         <v>8</v>
@@ -2909,11 +2912,11 @@
       </c>
       <c r="AT13" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>70</v>
+        <v>130</v>
       </c>
       <c r="AU13" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="AW13" s="1">
         <v>8</v>
@@ -2926,11 +2929,11 @@
       </c>
       <c r="AZ13" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BA13" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="BC13" s="1">
         <v>8</v>
@@ -2943,11 +2946,11 @@
       </c>
       <c r="BF13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="BG13" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>91</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:59" x14ac:dyDescent="0.25">
@@ -2962,11 +2965,11 @@
       </c>
       <c r="D14" s="4">
         <f>get_abs_axle_loc!D14</f>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="G14" s="1">
         <v>9</v>
@@ -2979,11 +2982,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="M14" s="1">
         <v>9</v>
@@ -2996,11 +2999,11 @@
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
@@ -3013,11 +3016,11 @@
       </c>
       <c r="V14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="Y14" s="1">
         <v>9</v>
@@ -3030,11 +3033,11 @@
       </c>
       <c r="AB14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>42</v>
+        <v>158</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="AE14" s="1">
         <v>9</v>
@@ -3047,11 +3050,11 @@
       </c>
       <c r="AH14" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>51</v>
+        <v>149</v>
       </c>
       <c r="AI14" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="AK14" s="1">
         <v>9</v>
@@ -3064,11 +3067,11 @@
       </c>
       <c r="AN14" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>56</v>
+        <v>144</v>
       </c>
       <c r="AO14" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AQ14" s="1">
         <v>9</v>
@@ -3081,11 +3084,11 @@
       </c>
       <c r="AT14" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="AU14" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="AW14" s="1">
         <v>9</v>
@@ -3098,11 +3101,11 @@
       </c>
       <c r="AZ14" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="BA14" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BC14" s="1">
         <v>9</v>
@@ -3115,11 +3118,11 @@
       </c>
       <c r="BF14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="BG14" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>83</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="1:59" x14ac:dyDescent="0.25">
@@ -3134,11 +3137,11 @@
       </c>
       <c r="D15" s="4">
         <f>get_abs_axle_loc!D15</f>
-        <v>11</v>
+        <v>189</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="G15" s="1">
         <v>10</v>
@@ -3151,11 +3154,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="M15" s="1">
         <v>10</v>
@@ -3168,11 +3171,11 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -3185,11 +3188,11 @@
       </c>
       <c r="V15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="Y15" s="1">
         <v>10</v>
@@ -3202,11 +3205,11 @@
       </c>
       <c r="AB15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>34</v>
+        <v>166</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AE15" s="1">
         <v>10</v>
@@ -3219,11 +3222,11 @@
       </c>
       <c r="AH15" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AI15" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="AK15" s="1">
         <v>10</v>
@@ -3236,11 +3239,11 @@
       </c>
       <c r="AN15" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>48</v>
+        <v>152</v>
       </c>
       <c r="AO15" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="AQ15" s="1">
         <v>10</v>
@@ -3253,11 +3256,11 @@
       </c>
       <c r="AT15" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="AU15" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="AW15" s="1">
         <v>10</v>
@@ -3270,11 +3273,11 @@
       </c>
       <c r="AZ15" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>59</v>
+        <v>141</v>
       </c>
       <c r="BA15" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="BC15" s="1">
         <v>10</v>
@@ -3287,11 +3290,11 @@
       </c>
       <c r="BF15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="BG15" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>75</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16" spans="1:59" x14ac:dyDescent="0.25">
@@ -3306,11 +3309,11 @@
       </c>
       <c r="D16" s="4">
         <f>get_abs_axle_loc!D16</f>
-        <v>6</v>
+        <v>194</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="G16" s="1">
         <v>11</v>
@@ -3323,11 +3326,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="M16" s="1">
         <v>11</v>
@@ -3340,11 +3343,11 @@
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="S16" s="1">
         <v>11</v>
@@ -3357,11 +3360,11 @@
       </c>
       <c r="V16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="Y16" s="1">
         <v>11</v>
@@ -3374,11 +3377,11 @@
       </c>
       <c r="AB16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>29</v>
+        <v>171</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AE16" s="1">
         <v>11</v>
@@ -3391,11 +3394,11 @@
       </c>
       <c r="AH16" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AI16" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AK16" s="1">
         <v>11</v>
@@ -3408,11 +3411,11 @@
       </c>
       <c r="AN16" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="AO16" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="AQ16" s="1">
         <v>11</v>
@@ -3425,11 +3428,11 @@
       </c>
       <c r="AT16" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="AU16" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="AW16" s="1">
         <v>11</v>
@@ -3442,11 +3445,11 @@
       </c>
       <c r="AZ16" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>54</v>
+        <v>146</v>
       </c>
       <c r="BA16" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="BC16" s="1">
         <v>11</v>
@@ -3459,11 +3462,11 @@
       </c>
       <c r="BF16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="BG16" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="17" spans="1:59" x14ac:dyDescent="0.25">
@@ -3478,11 +3481,11 @@
       </c>
       <c r="D17" s="4">
         <f>get_abs_axle_loc!D17</f>
-        <v>1</v>
+        <v>199</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="G17" s="1">
         <v>12</v>
@@ -3495,11 +3498,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="M17" s="1">
         <v>12</v>
@@ -3512,11 +3515,11 @@
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="S17" s="1">
         <v>12</v>
@@ -3529,11 +3532,11 @@
       </c>
       <c r="V17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="Y17" s="1">
         <v>12</v>
@@ -3546,11 +3549,11 @@
       </c>
       <c r="AB17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="AE17" s="1">
         <v>12</v>
@@ -3563,11 +3566,11 @@
       </c>
       <c r="AH17" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="AI17" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AK17" s="1">
         <v>12</v>
@@ -3580,11 +3583,11 @@
       </c>
       <c r="AN17" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="AO17" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AQ17" s="1">
         <v>12</v>
@@ -3597,11 +3600,11 @@
       </c>
       <c r="AT17" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AU17" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="AW17" s="1">
         <v>12</v>
@@ -3614,11 +3617,11 @@
       </c>
       <c r="AZ17" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>49</v>
+        <v>151</v>
       </c>
       <c r="BA17" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="BC17" s="1">
         <v>12</v>
@@ -3631,11 +3634,11 @@
       </c>
       <c r="BF17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="BG17" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:59" x14ac:dyDescent="0.25">
@@ -3650,11 +3653,11 @@
       </c>
       <c r="D18" s="4">
         <f>get_abs_axle_loc!D18</f>
-        <v>-4</v>
+        <v>204</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="G18" s="1">
         <v>13</v>
@@ -3667,11 +3670,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>196</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="M18" s="1">
         <v>13</v>
@@ -3684,11 +3687,11 @@
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>9</v>
+        <v>191</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="S18" s="1">
         <v>13</v>
@@ -3701,11 +3704,11 @@
       </c>
       <c r="V18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="Y18" s="1">
         <v>13</v>
@@ -3718,11 +3721,11 @@
       </c>
       <c r="AB18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="AE18" s="1">
         <v>13</v>
@@ -3735,11 +3738,11 @@
       </c>
       <c r="AH18" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>28</v>
+        <v>172</v>
       </c>
       <c r="AI18" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="AK18" s="1">
         <v>13</v>
@@ -3752,11 +3755,11 @@
       </c>
       <c r="AN18" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>33</v>
+        <v>167</v>
       </c>
       <c r="AO18" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AQ18" s="1">
         <v>13</v>
@@ -3769,11 +3772,11 @@
       </c>
       <c r="AT18" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>39</v>
+        <v>161</v>
       </c>
       <c r="AU18" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="AW18" s="1">
         <v>13</v>
@@ -3786,11 +3789,11 @@
       </c>
       <c r="AZ18" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>44</v>
+        <v>156</v>
       </c>
       <c r="BA18" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="BC18" s="1">
         <v>13</v>
@@ -3803,11 +3806,11 @@
       </c>
       <c r="BF18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="BG18" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>60</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" spans="1:59" x14ac:dyDescent="0.25">
@@ -3822,11 +3825,11 @@
       </c>
       <c r="D19" s="4">
         <f>get_abs_axle_loc!D19</f>
-        <v>-13</v>
+        <v>213</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-5</v>
+        <v>205</v>
       </c>
       <c r="G19" s="1">
         <v>14</v>
@@ -3839,11 +3842,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-5</v>
+        <v>205</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="M19" s="1">
         <v>14</v>
@@ -3856,11 +3859,11 @@
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="S19" s="1">
         <v>14</v>
@@ -3873,11 +3876,11 @@
       </c>
       <c r="V19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="Y19" s="1">
         <v>14</v>
@@ -3890,11 +3893,11 @@
       </c>
       <c r="AB19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>10</v>
+        <v>190</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AE19" s="1">
         <v>14</v>
@@ -3907,11 +3910,11 @@
       </c>
       <c r="AH19" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AI19" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="AK19" s="1">
         <v>14</v>
@@ -3924,11 +3927,11 @@
       </c>
       <c r="AN19" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="AO19" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AQ19" s="1">
         <v>14</v>
@@ -3941,11 +3944,11 @@
       </c>
       <c r="AT19" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AU19" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="AW19" s="1">
         <v>14</v>
@@ -3958,11 +3961,11 @@
       </c>
       <c r="AZ19" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>35</v>
+        <v>165</v>
       </c>
       <c r="BA19" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="BC19" s="1">
         <v>14</v>
@@ -3975,11 +3978,11 @@
       </c>
       <c r="BF19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="BG19" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>51</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:59" x14ac:dyDescent="0.25">
@@ -3994,11 +3997,11 @@
       </c>
       <c r="D20" s="4">
         <f>get_abs_axle_loc!D20</f>
-        <v>-18</v>
+        <v>218</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-10</v>
+        <v>210</v>
       </c>
       <c r="G20" s="1">
         <v>15</v>
@@ -4011,11 +4014,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-10</v>
+        <v>210</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-5</v>
+        <v>205</v>
       </c>
       <c r="M20" s="1">
         <v>15</v>
@@ -4028,11 +4031,11 @@
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-5</v>
+        <v>205</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="S20" s="1">
         <v>15</v>
@@ -4045,11 +4048,11 @@
       </c>
       <c r="V20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="Y20" s="1">
         <v>15</v>
@@ -4062,11 +4065,11 @@
       </c>
       <c r="AB20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>5</v>
+        <v>195</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="AE20" s="1">
         <v>15</v>
@@ -4079,11 +4082,11 @@
       </c>
       <c r="AH20" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="AI20" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AK20" s="1">
         <v>15</v>
@@ -4096,11 +4099,11 @@
       </c>
       <c r="AN20" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AO20" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="AQ20" s="1">
         <v>15</v>
@@ -4113,11 +4116,11 @@
       </c>
       <c r="AT20" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>25</v>
+        <v>175</v>
       </c>
       <c r="AU20" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="AW20" s="1">
         <v>15</v>
@@ -4130,11 +4133,11 @@
       </c>
       <c r="AZ20" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>30</v>
+        <v>170</v>
       </c>
       <c r="BA20" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="BC20" s="1">
         <v>15</v>
@@ -4147,11 +4150,11 @@
       </c>
       <c r="BF20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="BG20" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>46</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21" spans="1:59" x14ac:dyDescent="0.25">
@@ -4166,11 +4169,11 @@
       </c>
       <c r="D21" s="4">
         <f>get_abs_axle_loc!D21</f>
-        <v>-24</v>
+        <v>224</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-16</v>
+        <v>216</v>
       </c>
       <c r="G21" s="1">
         <v>16</v>
@@ -4183,11 +4186,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-16</v>
+        <v>216</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-11</v>
+        <v>211</v>
       </c>
       <c r="M21" s="1">
         <v>16</v>
@@ -4200,11 +4203,11 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-11</v>
+        <v>211</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-6</v>
+        <v>206</v>
       </c>
       <c r="S21" s="1">
         <v>16</v>
@@ -4217,11 +4220,11 @@
       </c>
       <c r="V21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-6</v>
+        <v>206</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-1</v>
+        <v>201</v>
       </c>
       <c r="Y21" s="1">
         <v>16</v>
@@ -4234,11 +4237,11 @@
       </c>
       <c r="AB21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-1</v>
+        <v>201</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="AE21" s="1">
         <v>16</v>
@@ -4251,11 +4254,11 @@
       </c>
       <c r="AH21" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="AI21" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="AK21" s="1">
         <v>16</v>
@@ -4268,11 +4271,11 @@
       </c>
       <c r="AN21" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>13</v>
+        <v>187</v>
       </c>
       <c r="AO21" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AQ21" s="1">
         <v>16</v>
@@ -4285,11 +4288,11 @@
       </c>
       <c r="AT21" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AU21" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="AW21" s="1">
         <v>16</v>
@@ -4302,11 +4305,11 @@
       </c>
       <c r="AZ21" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>24</v>
+        <v>176</v>
       </c>
       <c r="BA21" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="BC21" s="1">
         <v>16</v>
@@ -4319,11 +4322,11 @@
       </c>
       <c r="BF21" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="BG21" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22" spans="1:59" x14ac:dyDescent="0.25">
@@ -4338,11 +4341,11 @@
       </c>
       <c r="D22" s="4">
         <f>get_abs_axle_loc!D22</f>
-        <v>-29</v>
+        <v>229</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>-21</v>
+        <v>221</v>
       </c>
       <c r="G22" s="1">
         <v>17</v>
@@ -4355,11 +4358,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>-21</v>
+        <v>221</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>-16</v>
+        <v>216</v>
       </c>
       <c r="M22" s="1">
         <v>17</v>
@@ -4372,11 +4375,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>-16</v>
+        <v>216</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>-11</v>
+        <v>211</v>
       </c>
       <c r="S22" s="1">
         <v>17</v>
@@ -4389,11 +4392,11 @@
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-11</v>
+        <v>211</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-6</v>
+        <v>206</v>
       </c>
       <c r="Y22" s="1">
         <v>17</v>
@@ -4406,11 +4409,11 @@
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>-6</v>
+        <v>206</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="AE22" s="1">
         <v>17</v>
@@ -4423,11 +4426,11 @@
       </c>
       <c r="AH22" s="1">
         <f t="shared" ca="1" si="9"/>
-        <v>3</v>
+        <v>197</v>
       </c>
       <c r="AI22" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="AK22" s="1">
         <v>17</v>
@@ -4440,11 +4443,11 @@
       </c>
       <c r="AN22" s="1">
         <f t="shared" ca="1" si="11"/>
-        <v>8</v>
+        <v>192</v>
       </c>
       <c r="AO22" s="1">
         <f t="shared" ca="1" si="12"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="AQ22" s="1">
         <v>17</v>
@@ -4457,11 +4460,11 @@
       </c>
       <c r="AT22" s="1">
         <f t="shared" ca="1" si="13"/>
-        <v>14</v>
+        <v>186</v>
       </c>
       <c r="AU22" s="1">
         <f t="shared" ca="1" si="14"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="AW22" s="1">
         <v>17</v>
@@ -4474,11 +4477,11 @@
       </c>
       <c r="AZ22" s="1">
         <f t="shared" ca="1" si="15"/>
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="BA22" s="1">
         <f t="shared" ca="1" si="16"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="BC22" s="1">
         <v>17</v>
@@ -4491,16 +4494,16 @@
       </c>
       <c r="BF22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="BG22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>35</v>
+        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:59" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:59" x14ac:dyDescent="0.25">
@@ -4534,10 +4537,10 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -4545,46 +4548,46 @@
         <v>1</v>
       </c>
       <c r="C2" s="3">
-        <f>Sheet1!C3</f>
-        <v>75</v>
+        <f>input!C3</f>
+        <v>125</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="3">
-        <f>Sheet1!C3</f>
-        <v>75</v>
+        <f>input!C3</f>
+        <v>125</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <f>Sheet1!C4</f>
+        <f>input!C4</f>
         <v>0</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M3" s="3">
-        <f>Sheet1!C6</f>
+        <f>input!C6</f>
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="3">
-        <f>Sheet1!C5</f>
+        <f>input!C5</f>
         <v>100</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M4" s="3">
-        <f>Sheet1!C7</f>
+        <f>input!C7</f>
         <v>150</v>
       </c>
     </row>
@@ -4604,58 +4607,58 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="I7" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="K7" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M7" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="N7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="O7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="P7" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P7" s="1" t="s">
+      <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Q7" s="1" t="s">
+      <c r="R7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="S7" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="S7" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -4667,15 +4670,15 @@
       </c>
       <c r="C8" s="6">
         <f ca="1">move_alxe_loc!BA5</f>
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D25" ca="1" si="0">IF(AND(C8&gt;=$C$3, C8&lt;=$C$4), B8, 0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E25" ca="1" si="1">IF(AND(C8&gt;=$C$3, C8&lt;=$C$2),B8,0)</f>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F25" ca="1" si="2">IF(AND(C8&gt;=$C$2, C8&lt;=$C$4), B8, 0)</f>
@@ -4683,11 +4686,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ref="G8:G25" ca="1" si="3">D8*C8</f>
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H25" ca="1" si="4">E8*C8</f>
-        <v>0</v>
+        <v>2760</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I25" ca="1" si="5">F8*C8</f>
@@ -4701,11 +4704,11 @@
       </c>
       <c r="M8" s="6">
         <f ca="1">C8</f>
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="N8" s="5">
         <f ca="1">IF(AND(M8&gt;=$M$3, M8&lt;=$M$4), L8, 0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O8" s="5">
         <f ca="1">IF(AND(M8&gt;=$M$3, M8&lt;=$M$2),L8,0)</f>
@@ -4713,11 +4716,11 @@
       </c>
       <c r="P8" s="5">
         <f ca="1">IF(AND(M8&gt;=$M$2, M8&lt;=$M$4), L8, 0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="5">
         <f ca="1">N8*M8</f>
-        <v>5240</v>
+        <v>0</v>
       </c>
       <c r="R8" s="5">
         <f ca="1">O8*M8</f>
@@ -4725,7 +4728,7 @@
       </c>
       <c r="S8" s="5">
         <f ca="1">P8*M8</f>
-        <v>5240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -4737,15 +4740,15 @@
       </c>
       <c r="C9" s="6">
         <f ca="1">move_alxe_loc!BA6</f>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4753,11 +4756,11 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6160</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4771,11 +4774,11 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" ref="M9:M25" ca="1" si="6">C9</f>
-        <v>123</v>
+        <v>77</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ref="N9:N25" ca="1" si="7">IF(AND(M9&gt;=$M$3, M9&lt;=$M$4), L9, 0)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O9" s="5">
         <f t="shared" ref="O9:O25" ca="1" si="8">IF(AND(M9&gt;=$M$3, M9&lt;=$M$2),L9,0)</f>
@@ -4783,11 +4786,11 @@
       </c>
       <c r="P9" s="5">
         <f t="shared" ref="P9:P25" ca="1" si="9">IF(AND(M9&gt;=$M$2, M9&lt;=$M$4), L9, 0)</f>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="5">
         <f t="shared" ref="Q8:Q25" ca="1" si="10">N9*M9</f>
-        <v>9840</v>
+        <v>0</v>
       </c>
       <c r="R9" s="5">
         <f t="shared" ref="R8:R25" ca="1" si="11">O9*M9</f>
@@ -4795,7 +4798,7 @@
       </c>
       <c r="S9" s="5">
         <f t="shared" ref="S8:S25" ca="1" si="12">P9*M9</f>
-        <v>9840</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -4807,15 +4810,15 @@
       </c>
       <c r="C10" s="6">
         <f ca="1">move_alxe_loc!BA7</f>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4823,11 +4826,11 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6560</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6560</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4841,11 +4844,11 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>118</v>
+        <v>82</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O10" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4853,11 +4856,11 @@
       </c>
       <c r="P10" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q10" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>9440</v>
+        <v>0</v>
       </c>
       <c r="R10" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -4865,7 +4868,7 @@
       </c>
       <c r="S10" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>9440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -4877,15 +4880,15 @@
       </c>
       <c r="C11" s="6">
         <f ca="1">move_alxe_loc!BA8</f>
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4893,11 +4896,11 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>6960</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6960</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4911,11 +4914,11 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O11" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4923,11 +4926,11 @@
       </c>
       <c r="P11" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q11" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>9040</v>
+        <v>0</v>
       </c>
       <c r="R11" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -4935,7 +4938,7 @@
       </c>
       <c r="S11" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>9040</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -4947,15 +4950,15 @@
       </c>
       <c r="C12" s="6">
         <f ca="1">move_alxe_loc!BA9</f>
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4963,11 +4966,11 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>7360</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>7360</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4981,11 +4984,11 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="O12" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -4993,11 +4996,11 @@
       </c>
       <c r="P12" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="Q12" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>8640</v>
+        <v>0</v>
       </c>
       <c r="R12" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5005,7 +5008,7 @@
       </c>
       <c r="S12" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>8640</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -5017,31 +5020,31 @@
       </c>
       <c r="C13" s="6">
         <f ca="1">move_alxe_loc!BA10</f>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G13" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5148</v>
+        <v>0</v>
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5252</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>5148</v>
+        <v>0</v>
       </c>
       <c r="K13" s="5">
         <v>6</v>
@@ -5051,31 +5054,31 @@
       </c>
       <c r="M13" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q13" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5252</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5252</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
@@ -5087,31 +5090,31 @@
       </c>
       <c r="C14" s="6">
         <f ca="1">move_alxe_loc!BA11</f>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G14" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4888</v>
+        <v>0</v>
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4888</v>
+        <v>0</v>
       </c>
       <c r="K14" s="5">
         <v>7</v>
@@ -5121,31 +5124,31 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q14" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5512</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>4888</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
@@ -5157,31 +5160,31 @@
       </c>
       <c r="C15" s="6">
         <f ca="1">move_alxe_loc!BA12</f>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F15" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4576</v>
+        <v>0</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>5824</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4576</v>
+        <v>0</v>
       </c>
       <c r="K15" s="5">
         <v>8</v>
@@ -5191,31 +5194,31 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>88</v>
+        <v>112</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5824</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5824</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>4576</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
@@ -5227,31 +5230,31 @@
       </c>
       <c r="C16" s="6">
         <f ca="1">move_alxe_loc!BA13</f>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="F16" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>4316</v>
+        <v>0</v>
       </c>
       <c r="K16" s="5">
         <v>9</v>
@@ -5261,31 +5264,31 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="Q16" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>6084</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>4316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
@@ -5297,11 +5300,11 @@
       </c>
       <c r="C17" s="6">
         <f ca="1">move_alxe_loc!BA14</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -5309,19 +5312,19 @@
       </c>
       <c r="F17" s="5">
         <f t="shared" ca="1" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="5"/>
-        <v>3000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="5">
         <v>10</v>
@@ -5331,15 +5334,15 @@
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5347,15 +5350,15 @@
       </c>
       <c r="Q17" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>3000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
@@ -5367,15 +5370,15 @@
       </c>
       <c r="C18" s="6">
         <f ca="1">move_alxe_loc!BA15</f>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5383,11 +5386,11 @@
       </c>
       <c r="G18" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>5360</v>
+        <v>0</v>
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5360</v>
+        <v>0</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5401,11 +5404,11 @@
       </c>
       <c r="M18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>67</v>
+        <v>133</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -5413,11 +5416,11 @@
       </c>
       <c r="P18" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>10640</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5425,7 +5428,7 @@
       </c>
       <c r="S18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>10640</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
@@ -5437,15 +5440,15 @@
       </c>
       <c r="C19" s="6">
         <f ca="1">move_alxe_loc!BA16</f>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E19" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F19" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5453,11 +5456,11 @@
       </c>
       <c r="G19" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4960</v>
+        <v>0</v>
       </c>
       <c r="H19" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4960</v>
+        <v>0</v>
       </c>
       <c r="I19" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5471,11 +5474,11 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>62</v>
+        <v>138</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O19" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -5483,11 +5486,11 @@
       </c>
       <c r="P19" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>11040</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5495,7 +5498,7 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>11040</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
@@ -5507,15 +5510,15 @@
       </c>
       <c r="C20" s="6">
         <f ca="1">move_alxe_loc!BA17</f>
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E20" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F20" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5523,11 +5526,11 @@
       </c>
       <c r="G20" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="H20" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4560</v>
+        <v>0</v>
       </c>
       <c r="I20" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5541,11 +5544,11 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>57</v>
+        <v>143</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O20" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -5553,11 +5556,11 @@
       </c>
       <c r="P20" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5565,7 +5568,7 @@
       </c>
       <c r="S20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>11440</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
@@ -5577,15 +5580,15 @@
       </c>
       <c r="C21" s="6">
         <f ca="1">move_alxe_loc!BA18</f>
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E21" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F21" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5593,11 +5596,11 @@
       </c>
       <c r="G21" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="H21" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>4160</v>
+        <v>0</v>
       </c>
       <c r="I21" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5611,11 +5614,11 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>52</v>
+        <v>148</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="O21" s="5">
         <f t="shared" ca="1" si="8"/>
@@ -5623,11 +5626,11 @@
       </c>
       <c r="P21" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="Q21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>0</v>
+        <v>11840</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5635,7 +5638,7 @@
       </c>
       <c r="S21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <v>11840</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
@@ -5647,15 +5650,15 @@
       </c>
       <c r="C22" s="6">
         <f ca="1">move_alxe_loc!BA19</f>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E22" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F22" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5663,11 +5666,11 @@
       </c>
       <c r="G22" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="H22" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>2236</v>
+        <v>0</v>
       </c>
       <c r="I22" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5681,7 +5684,7 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>43</v>
+        <v>157</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5717,15 +5720,15 @@
       </c>
       <c r="C23" s="6">
         <f ca="1">move_alxe_loc!BA20</f>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E23" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F23" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5733,11 +5736,11 @@
       </c>
       <c r="G23" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1976</v>
+        <v>0</v>
       </c>
       <c r="H23" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1976</v>
+        <v>0</v>
       </c>
       <c r="I23" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5751,7 +5754,7 @@
       </c>
       <c r="M23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>38</v>
+        <v>162</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5787,15 +5790,15 @@
       </c>
       <c r="C24" s="6">
         <f ca="1">move_alxe_loc!BA21</f>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E24" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F24" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5803,11 +5806,11 @@
       </c>
       <c r="G24" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="H24" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1664</v>
+        <v>0</v>
       </c>
       <c r="I24" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5821,7 +5824,7 @@
       </c>
       <c r="M24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>32</v>
+        <v>168</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5857,15 +5860,15 @@
       </c>
       <c r="C25" s="6">
         <f ca="1">move_alxe_loc!BA22</f>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="E25" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F25" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5873,11 +5876,11 @@
       </c>
       <c r="G25" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="H25" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>1404</v>
+        <v>0</v>
       </c>
       <c r="I25" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5891,7 +5894,7 @@
       </c>
       <c r="M25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>27</v>
+        <v>173</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5944,176 +5947,176 @@
       <c r="C27" s="5"/>
       <c r="D27" s="5">
         <f t="shared" ref="D27:I27" ca="1" si="13">SUM(D8:D25)</f>
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>48248</v>
+        <v>29800</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>29320</v>
+        <v>57472</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>21928</v>
+        <v>0</v>
       </c>
       <c r="K27" s="5"/>
       <c r="L27" s="5"/>
       <c r="M27" s="5"/>
       <c r="N27" s="5">
         <f ca="1">SUM(N8:N25)</f>
-        <v>360</v>
+        <v>568</v>
       </c>
       <c r="O27" s="5">
         <f ca="1">SUM(O8:O25)</f>
-        <v>0</v>
+        <v>248</v>
       </c>
       <c r="P27" s="5">
         <f t="shared" ref="N27:S27" ca="1" si="14">SUM(P8:P25)</f>
-        <v>608</v>
+        <v>360</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>42200</v>
+        <v>72632</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>0</v>
+        <v>27672</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>64128</v>
+        <v>49960</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="G29" s="7">
         <f ca="1">G27/D27</f>
-        <v>62.175257731958766</v>
+        <v>82.777777777777771</v>
       </c>
       <c r="H29" s="7">
         <f ca="1">H27/E27</f>
-        <v>51.619718309859152</v>
-      </c>
-      <c r="I29" s="7">
+        <v>94.526315789473685</v>
+      </c>
+      <c r="I29" s="7" t="e">
         <f ca="1">I27/F27</f>
-        <v>88.41935483870968</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q29" s="7">
         <f ca="1">Q27/N27</f>
-        <v>117.22222222222223</v>
-      </c>
-      <c r="R29" s="7" t="e">
+        <v>127.87323943661971</v>
+      </c>
+      <c r="R29" s="7">
         <f ca="1">R27/O27</f>
-        <v>#DIV/0!</v>
+        <v>111.58064516129032</v>
       </c>
       <c r="S29" s="7">
         <f ca="1">S27/P27</f>
-        <v>105.47368421052632</v>
+        <v>138.77777777777777</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C31" s="9">
         <f ca="1">D27</f>
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="L31" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="M31" s="11">
         <f ca="1">N27</f>
-        <v>360</v>
+        <v>568</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C32" s="9">
         <f ca="1">G29</f>
-        <v>62.175257731958766</v>
+        <v>82.777777777777771</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M32" s="11">
         <f ca="1">Q29</f>
-        <v>117.22222222222223</v>
+        <v>127.87323943661971</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C33" s="9">
         <f ca="1">E27</f>
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M33" s="11">
         <f ca="1">O27</f>
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B34" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C34" s="9">
         <f ca="1">H29</f>
-        <v>51.619718309859152</v>
+        <v>94.526315789473685</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M34" s="11" t="e">
+        <v>26</v>
+      </c>
+      <c r="M34" s="11">
         <f ca="1">R29</f>
-        <v>#DIV/0!</v>
+        <v>111.58064516129032</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C35" s="8">
         <f ca="1">F27</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="M35" s="11">
         <f ca="1">P27</f>
-        <v>608</v>
+        <v>360</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B36" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C36" s="8">
+        <v>27</v>
+      </c>
+      <c r="C36" s="8" t="e">
         <f ca="1">I29</f>
-        <v>88.41935483870968</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="M36" s="11">
         <f ca="1">S29</f>
-        <v>105.47368421052632</v>
+        <v>138.77777777777777</v>
       </c>
     </row>
   </sheetData>
@@ -6137,73 +6140,73 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">calc_load_and_location!C31</f>
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">calc_load_and_location!M31</f>
-        <v>360</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" s="2">
         <f ca="1">calc_load_and_location!C32</f>
-        <v>62.175257731958766</v>
+        <v>82.777777777777771</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">calc_load_and_location!M32</f>
-        <v>117.22222222222223</v>
+        <v>127.87323943661971</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="2">
-        <f>Sheet1!C4</f>
+        <f>input!C4</f>
         <v>0</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2">
-        <f>Sheet1!C6</f>
+        <f>input!C6</f>
         <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="2">
-        <f>Sheet1!C5</f>
+        <f>input!C5</f>
         <v>100</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G5" s="2">
-        <f>Sheet1!C7</f>
+        <f>input!C7</f>
         <v>150</v>
       </c>
     </row>
@@ -6212,27 +6215,27 @@
         <v>2</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G6" s="2" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="5">
         <f>C5-C4</f>
         <v>100</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G8" s="5">
         <f>G5-G4</f>
@@ -6241,34 +6244,34 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="12">
         <f ca="1">IF(C8=0,0,IF(C6="ltr",C2*(C5-C3)/C8,IF(C6="rtl",C2*(C3-C4)/C8,"NA")))</f>
-        <v>293.52</v>
+        <v>297.99999999999994</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">IF(G8=0,0,IF(G6="ltr",G2*(G5-G3)/G8,IF(G6="rtl",G2*(G3-G4)/G8,"NA")))</f>
-        <v>235.99999999999997</v>
+        <v>316.63999999999993</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="12">
         <f ca="1">IF(C8=0,0,IF(C6="ltr",C2*(C3-C4)/C8,IF(C6="rtl",C2*(C5-C3)/C8,"NA")))</f>
-        <v>482.48</v>
+        <v>62.000000000000021</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10" s="12">
         <f ca="1">IF(G8=0,0,IF(G6="ltr",G2*(G3-G4)/G8,IF(G6="rtl",G2*(G5-G3)/G8,"NA")))</f>
-        <v>124.00000000000004</v>
+        <v>251.36000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -6282,7 +6285,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,19 +6295,19 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="13">
         <f ca="1">calc_load_and_location!C31</f>
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1">
         <f>C7-C6</f>
@@ -6313,14 +6316,14 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="13">
         <f ca="1">calc_load_and_location!C32</f>
-        <v>62.175257731958766</v>
+        <v>82.777777777777771</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F3" s="1">
         <f>C9-C8</f>
@@ -6329,65 +6332,65 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13">
         <f ca="1">calc_load_and_location!M31</f>
-        <v>360</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C5" s="13">
         <f ca="1">calc_load_and_location!M32</f>
-        <v>117.22222222222223</v>
+        <v>127.87323943661971</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C6" s="13">
-        <f>Sheet1!C4</f>
+        <f>input!C4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C7" s="13">
-        <f>Sheet1!C5</f>
+        <f>input!C5</f>
         <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="13">
-        <f>Sheet1!C6</f>
+        <f>input!C6</f>
         <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C9" s="13">
-        <f>Sheet1!C7</f>
+        <f>input!C7</f>
         <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C11" s="10">
         <f ca="1">IF(F3&gt;0, C2*(C3-C6)/F2+C4*(C9-C5)/F3, 0)</f>
-        <v>718.48</v>
+        <v>549.36</v>
       </c>
     </row>
   </sheetData>
@@ -6411,58 +6414,58 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C2" s="15">
         <f ca="1">calc_reactions!C9</f>
-        <v>293.52</v>
+        <v>297.99999999999994</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G2" s="15">
         <f ca="1">calc_reactions!G9</f>
-        <v>235.99999999999997</v>
+        <v>316.63999999999993</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="15">
         <f ca="1">calc_load_and_location!C35</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="15">
         <f ca="1">calc_load_and_location!M35</f>
-        <v>608</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C4" s="15">
         <f ca="1">calc_load_and_location!C33</f>
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="15">
         <f ca="1">calc_load_and_location!M33</f>
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6470,15 +6473,15 @@
         <v>2</v>
       </c>
       <c r="C5" s="15" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
       <c r="F5" s="14" t="s">
         <v>2</v>
       </c>
       <c r="G5" s="15" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -6487,14 +6490,14 @@
       </c>
       <c r="C7" s="16">
         <f ca="1">IF(C5="ltr", C4-C2, IF(C5="rtl",ABS(C3-C2), "NA"))</f>
-        <v>274.48</v>
+        <v>297.99999999999994</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="16">
         <f ca="1">IF(G5="ltr", G4-G2, IF(G5="rtl",ABS(G3-G2), "NA"))</f>
-        <v>-235.99999999999997</v>
+        <v>43.36000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -6512,14 +6515,16 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="17"/>
     <col min="3" max="3" width="12.5703125" style="17" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="17"/>
+    <col min="4" max="9" width="9.140625" style="17"/>
+    <col min="10" max="10" width="9.5703125" style="17" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="17"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -6535,97 +6540,97 @@
         <v>1</v>
       </c>
       <c r="C2" s="18">
-        <f>Sheet1!C3</f>
-        <v>75</v>
+        <f>input!C3</f>
+        <v>125</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="17">
         <f ca="1">C2-C3</f>
-        <v>23.380281690140848</v>
+        <v>30.473684210526315</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="18">
-        <f>Sheet1!C3</f>
-        <v>75</v>
+        <f>input!C3</f>
+        <v>125</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="M2" s="17" t="e">
+      <c r="M2" s="17">
         <f ca="1">J2-J3</f>
-        <v>#DIV/0!</v>
+        <v>13.41935483870968</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C3" s="18">
         <f ca="1">calc_load_and_location!C34</f>
-        <v>51.619718309859152</v>
+        <v>94.526315789473685</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="17">
         <f>C2-C5</f>
-        <v>75</v>
+        <v>125</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="18" t="e">
+        <v>26</v>
+      </c>
+      <c r="J3" s="18">
         <f ca="1">calc_load_and_location!M34</f>
-        <v>#DIV/0!</v>
+        <v>111.58064516129032</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="17">
         <f>J2-J5</f>
-        <v>-25</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="17" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="18">
+        <v>27</v>
+      </c>
+      <c r="C4" s="18" t="e">
         <f ca="1">calc_load_and_location!C36</f>
-        <v>88.41935483870968</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I4" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J4" s="18">
         <f ca="1">calc_load_and_location!M36</f>
-        <v>105.47368421052632</v>
+        <v>138.77777777777777</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C5" s="18">
-        <f>Sheet1!C4</f>
+        <f>input!C4</f>
         <v>0</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="17" t="e">
         <f ca="1">C4-C2</f>
-        <v>13.41935483870968</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="18">
-        <f>Sheet1!C6</f>
+        <f>input!C6</f>
         <v>100</v>
       </c>
       <c r="L5" s="17" t="s">
@@ -6633,15 +6638,15 @@
       </c>
       <c r="M5" s="17">
         <f ca="1">J4-J2</f>
-        <v>30.473684210526315</v>
+        <v>13.777777777777771</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18">
-        <f>Sheet1!C5</f>
+        <f>input!C5</f>
         <v>100</v>
       </c>
       <c r="E6" s="17" t="s">
@@ -6649,13 +6654,13 @@
       </c>
       <c r="F6" s="17">
         <f>C6-C2</f>
-        <v>25</v>
+        <v>-25</v>
       </c>
       <c r="I6" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J6" s="18">
-        <f>Sheet1!C7</f>
+        <f>input!C7</f>
         <v>150</v>
       </c>
       <c r="L6" s="17" t="s">
@@ -6663,55 +6668,55 @@
       </c>
       <c r="M6" s="17">
         <f>J6-J2</f>
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="18">
         <f ca="1">calc_reactions!C9</f>
-        <v>293.52</v>
+        <v>297.99999999999994</v>
       </c>
       <c r="I7" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J7" s="18">
         <f ca="1">calc_reactions!G9</f>
-        <v>235.99999999999997</v>
+        <v>316.63999999999993</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C8" s="18">
         <f ca="1">calc_load_and_location!C33</f>
-        <v>568</v>
+        <v>608</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J8" s="18">
         <f ca="1">calc_load_and_location!M33</f>
-        <v>0</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" s="18">
         <f ca="1">calc_load_and_location!C35</f>
-        <v>248</v>
+        <v>0</v>
       </c>
       <c r="I9" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="18">
         <f ca="1">calc_load_and_location!M35</f>
-        <v>608</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -6719,31 +6724,31 @@
         <v>2</v>
       </c>
       <c r="C10" s="18" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
       <c r="I10" s="17" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="18" t="str">
-        <f>Sheet1!C8</f>
-        <v>ltr</v>
+        <f>input!C8</f>
+        <v>rtl</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="21">
+      <c r="C12" s="21" t="e">
         <f ca="1">IF(C10="ltr",C7*F3-C8*F2, IF(C10="rtl",C7*F6-C9*F5,"NA"))</f>
-        <v>8733.9999999999982</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="I12" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J12" s="17" t="e">
+      <c r="J12" s="21">
         <f ca="1">IF(J10="ltr",J7*M3-J8*M2, IF(J10="rtl",J7*M6-J9*M5,"NA"))</f>
-        <v>#DIV/0!</v>
+        <v>2956</v>
       </c>
     </row>
   </sheetData>

--- a/test/manual_mlob.xlsx
+++ b/test/manual_mlob.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8715" tabRatio="717" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23400" windowHeight="8715" tabRatio="717" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="input" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
     <sheet name="calc_shear" sheetId="7" r:id="rId7"/>
     <sheet name="calc_moment" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="59">
   <si>
     <t>get_abs_axle_loc</t>
   </si>
@@ -213,12 +213,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000000"/>
-    <numFmt numFmtId="168" formatCode="0.00000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.00000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -300,7 +300,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -320,10 +320,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="1" applyFill="1"/>
@@ -331,7 +331,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -342,16 +342,20 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 4" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -662,7 +666,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -670,13 +674,16 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="22">
-        <v>125</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
@@ -692,7 +699,7 @@
         <v>55</v>
       </c>
       <c r="C5" s="22">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
@@ -700,7 +707,7 @@
         <v>56</v>
       </c>
       <c r="C6" s="22">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
@@ -708,7 +715,7 @@
         <v>57</v>
       </c>
       <c r="C7" s="22">
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
@@ -725,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -734,7 +741,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="2" width="9.140625" style="1"/>
+    <col min="3" max="3" width="12.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +757,7 @@
       </c>
       <c r="C2" s="2">
         <f>input!C3</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -790,7 +799,7 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ref="D5:D22" si="0">IF($C$3="ltr",$C$2-C5, $C$2+C5)</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -806,7 +815,7 @@
       </c>
       <c r="D6" s="1">
         <f t="shared" si="0"/>
-        <v>133</v>
+        <v>32.799999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -822,7 +831,7 @@
       </c>
       <c r="D7" s="1">
         <f t="shared" si="0"/>
-        <v>138</v>
+        <v>37.799999999999997</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,7 +847,7 @@
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>143</v>
+        <v>42.8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -854,7 +863,7 @@
       </c>
       <c r="D9" s="1">
         <f t="shared" si="0"/>
-        <v>148</v>
+        <v>47.8</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -870,7 +879,7 @@
       </c>
       <c r="D10" s="1">
         <f t="shared" si="0"/>
-        <v>157</v>
+        <v>56.8</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -886,7 +895,7 @@
       </c>
       <c r="D11" s="1">
         <f t="shared" si="0"/>
-        <v>162</v>
+        <v>61.8</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -902,7 +911,7 @@
       </c>
       <c r="D12" s="1">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>67.8</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -918,7 +927,7 @@
       </c>
       <c r="D13" s="1">
         <f t="shared" si="0"/>
-        <v>173</v>
+        <v>72.8</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -934,7 +943,7 @@
       </c>
       <c r="D14" s="1">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -950,7 +959,7 @@
       </c>
       <c r="D15" s="1">
         <f t="shared" si="0"/>
-        <v>189</v>
+        <v>88.8</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -966,7 +975,7 @@
       </c>
       <c r="D16" s="1">
         <f t="shared" si="0"/>
-        <v>194</v>
+        <v>93.8</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -982,7 +991,7 @@
       </c>
       <c r="D17" s="1">
         <f t="shared" si="0"/>
-        <v>199</v>
+        <v>98.8</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -998,7 +1007,7 @@
       </c>
       <c r="D18" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>103.8</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -1014,7 +1023,7 @@
       </c>
       <c r="D19" s="1">
         <f t="shared" si="0"/>
-        <v>213</v>
+        <v>112.8</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -1030,7 +1039,7 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" si="0"/>
-        <v>218</v>
+        <v>117.8</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -1046,7 +1055,7 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="0"/>
-        <v>224</v>
+        <v>123.8</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1062,7 +1071,7 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="0"/>
-        <v>229</v>
+        <v>128.80000000000001</v>
       </c>
     </row>
   </sheetData>
@@ -1072,11 +1081,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BG28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:DO46"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29:B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1084,12 +1093,12 @@
     <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:59" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:119" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1150,8 +1159,67 @@
       <c r="BE2" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BJ2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK2" s="3">
+        <v>12</v>
+      </c>
+      <c r="BP2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ2" s="3">
+        <v>13</v>
+      </c>
+      <c r="BV2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW2" s="3">
+        <v>14</v>
+      </c>
+      <c r="CB2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC2" s="3">
+        <v>15</v>
+      </c>
+      <c r="CH2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI2" s="3">
+        <v>16</v>
+      </c>
+      <c r="CN2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO2" s="3">
+        <v>17</v>
+      </c>
+      <c r="CT2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU2" s="3">
+        <v>18</v>
+      </c>
+      <c r="CY2"/>
+      <c r="CZ2"/>
+      <c r="DA2"/>
+      <c r="DB2"/>
+      <c r="DC2"/>
+      <c r="DD2"/>
+      <c r="DE2"/>
+      <c r="DF2"/>
+      <c r="DG2"/>
+      <c r="DH2"/>
+      <c r="DI2"/>
+      <c r="DJ2"/>
+      <c r="DK2"/>
+      <c r="DL2"/>
+      <c r="DM2"/>
+      <c r="DN2"/>
+      <c r="DO2"/>
+    </row>
+    <row r="3" spans="1:119" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1252,8 +1320,95 @@
       <c r="BF3" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BJ3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BK3" s="3" t="str">
+        <f>BE3</f>
+        <v>rtl</v>
+      </c>
+      <c r="BL3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BP3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BQ3" s="3" t="str">
+        <f>BK3</f>
+        <v>rtl</v>
+      </c>
+      <c r="BR3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="BV3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="BW3" s="3" t="str">
+        <f>BQ3</f>
+        <v>rtl</v>
+      </c>
+      <c r="BX3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CB3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CC3" s="3" t="str">
+        <f>BW3</f>
+        <v>rtl</v>
+      </c>
+      <c r="CD3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CH3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CI3" s="3" t="str">
+        <f>CC3</f>
+        <v>rtl</v>
+      </c>
+      <c r="CJ3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CN3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CO3" s="3" t="str">
+        <f>CI3</f>
+        <v>rtl</v>
+      </c>
+      <c r="CP3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CT3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="CU3" s="3" t="str">
+        <f>CO3</f>
+        <v>rtl</v>
+      </c>
+      <c r="CV3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="CY3"/>
+      <c r="CZ3"/>
+      <c r="DA3"/>
+      <c r="DB3"/>
+      <c r="DC3"/>
+      <c r="DD3"/>
+      <c r="DE3"/>
+      <c r="DF3"/>
+      <c r="DG3"/>
+      <c r="DH3"/>
+      <c r="DI3"/>
+      <c r="DJ3"/>
+      <c r="DK3"/>
+      <c r="DL3"/>
+      <c r="DM3"/>
+      <c r="DN3"/>
+      <c r="DO3"/>
+    </row>
+    <row r="4" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>10</v>
       </c>
@@ -1404,8 +1559,130 @@
       <c r="BG4" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="5" spans="1:59" x14ac:dyDescent="0.25">
+      <c r="BI4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BK4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BL4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BM4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BQ4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BR4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BS4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="BU4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="BV4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="BW4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="BX4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="BY4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CA4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CB4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CC4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CD4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CE4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CG4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CH4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CI4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CJ4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CK4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CM4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CN4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CO4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CP4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CQ4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CS4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="CT4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="CU4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="CV4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="CW4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="CY4"/>
+      <c r="CZ4"/>
+      <c r="DA4"/>
+      <c r="DB4"/>
+      <c r="DC4"/>
+      <c r="DD4"/>
+      <c r="DE4"/>
+      <c r="DF4"/>
+      <c r="DG4"/>
+      <c r="DH4"/>
+      <c r="DI4"/>
+      <c r="DJ4"/>
+      <c r="DK4"/>
+      <c r="DL4"/>
+      <c r="DM4"/>
+      <c r="DN4"/>
+      <c r="DO4"/>
+    </row>
+    <row r="5" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>0</v>
       </c>
@@ -1417,11 +1694,11 @@
       </c>
       <c r="D5" s="4">
         <f>get_abs_axle_loc!D5</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
       <c r="E5" s="1">
         <f t="shared" ref="E5:E22" ca="1" si="0">IF(C$3="ltr",D5+INDIRECT(CONCATENATE("C",C$2-1+5)),D5-INDIRECT(CONCATENATE("C",C$2-1+5)))</f>
-        <v>117</v>
+        <v>16.8</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -1434,11 +1711,11 @@
       </c>
       <c r="J5" s="1">
         <f t="shared" ref="J5:J22" ca="1" si="1">E5</f>
-        <v>117</v>
+        <v>16.8</v>
       </c>
       <c r="K5" s="1">
         <f t="shared" ref="K5:K22" ca="1" si="2">IF(I$3="ltr",J5+INDIRECT(CONCATENATE("C",I$2-1+5)),J5-INDIRECT(CONCATENATE("C",I$2-1+5)))</f>
-        <v>112</v>
+        <v>11.8</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1451,11 +1728,11 @@
       </c>
       <c r="P5" s="1">
         <f t="shared" ref="P5:P22" ca="1" si="3">K5</f>
-        <v>112</v>
+        <v>11.8</v>
       </c>
       <c r="Q5" s="1">
         <f t="shared" ref="Q5:Q22" ca="1" si="4">IF(O$3="ltr",P5+INDIRECT(CONCATENATE("C",O$2-1+5)),P5-INDIRECT(CONCATENATE("C",O$2-1+5)))</f>
-        <v>107</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="S5" s="1">
         <v>0</v>
@@ -1468,11 +1745,11 @@
       </c>
       <c r="V5" s="1">
         <f t="shared" ref="V5:V22" ca="1" si="5">Q5</f>
-        <v>107</v>
+        <v>6.8000000000000007</v>
       </c>
       <c r="W5" s="1">
         <f t="shared" ref="W5:W22" ca="1" si="6">IF(U$3="ltr",V5+INDIRECT(CONCATENATE("C",U$2-1+5)),V5-INDIRECT(CONCATENATE("C",U$2-1+5)))</f>
-        <v>102</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="Y5" s="1">
         <v>0</v>
@@ -1485,11 +1762,11 @@
       </c>
       <c r="AB5" s="1">
         <f t="shared" ref="AB5:AB22" ca="1" si="7">W5</f>
-        <v>102</v>
+        <v>1.8000000000000007</v>
       </c>
       <c r="AC5" s="1">
         <f t="shared" ref="AC5:AC22" ca="1" si="8">IF(AA$3="ltr",AB5+INDIRECT(CONCATENATE("C",AA$2-1+5)),AB5-INDIRECT(CONCATENATE("C",AA$2-1+5)))</f>
-        <v>93</v>
+        <v>-7.1999999999999993</v>
       </c>
       <c r="AE5" s="1">
         <v>0</v>
@@ -1501,12 +1778,12 @@
         <v>0</v>
       </c>
       <c r="AH5" s="1">
-        <f t="shared" ref="AH5:AH22" ca="1" si="9">AC5</f>
-        <v>93</v>
+        <f ca="1">AC5</f>
+        <v>-7.1999999999999993</v>
       </c>
       <c r="AI5" s="1">
-        <f t="shared" ref="AI5:AI22" ca="1" si="10">IF(AG$3="ltr",AH5+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH5-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
-        <v>88</v>
+        <f ca="1">IF(AG$3="ltr",AH5+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH5-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
+        <v>-12.2</v>
       </c>
       <c r="AK5" s="1">
         <v>0</v>
@@ -1518,12 +1795,12 @@
         <v>0</v>
       </c>
       <c r="AN5" s="1">
-        <f t="shared" ref="AN5:AN22" ca="1" si="11">AI5</f>
-        <v>88</v>
+        <f t="shared" ref="AN5:AN22" ca="1" si="9">AI5</f>
+        <v>-12.2</v>
       </c>
       <c r="AO5" s="1">
-        <f t="shared" ref="AO5:AO22" ca="1" si="12">IF(AM$3="ltr",AN5+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN5-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
-        <v>82</v>
+        <f t="shared" ref="AO5:AO22" ca="1" si="10">IF(AM$3="ltr",AN5+INDIRECT(CONCATENATE("C",AM$2-1+5)),AN5-INDIRECT(CONCATENATE("C",AM$2-1+5)))</f>
+        <v>-18.2</v>
       </c>
       <c r="AQ5" s="1">
         <v>0</v>
@@ -1535,12 +1812,12 @@
         <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <f t="shared" ref="AT5:AT22" ca="1" si="13">AO5</f>
-        <v>82</v>
+        <f t="shared" ref="AT5:AT22" ca="1" si="11">AO5</f>
+        <v>-18.2</v>
       </c>
       <c r="AU5" s="1">
-        <f t="shared" ref="AU5:AU22" ca="1" si="14">IF(AS$3="ltr",AT5+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT5-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
-        <v>77</v>
+        <f t="shared" ref="AU5:AU22" ca="1" si="12">IF(AS$3="ltr",AT5+INDIRECT(CONCATENATE("C",AS$2-1+5)),AT5-INDIRECT(CONCATENATE("C",AS$2-1+5)))</f>
+        <v>-23.2</v>
       </c>
       <c r="AW5" s="1">
         <v>0</v>
@@ -1552,12 +1829,12 @@
         <v>0</v>
       </c>
       <c r="AZ5" s="1">
-        <f t="shared" ref="AZ5:AZ22" ca="1" si="15">AU5</f>
-        <v>77</v>
+        <f t="shared" ref="AZ5:AZ22" ca="1" si="13">AU5</f>
+        <v>-23.2</v>
       </c>
       <c r="BA5" s="1">
-        <f t="shared" ref="BA5:BA22" ca="1" si="16">IF(AY$3="ltr",AZ5+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ5-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
-        <v>69</v>
+        <f t="shared" ref="BA5:BA22" ca="1" si="14">IF(AY$3="ltr",AZ5+INDIRECT(CONCATENATE("C",AY$2-1+5)),AZ5-INDIRECT(CONCATENATE("C",AY$2-1+5)))</f>
+        <v>-31.2</v>
       </c>
       <c r="BC5" s="1">
         <v>0</v>
@@ -1569,15 +1846,151 @@
         <v>0</v>
       </c>
       <c r="BF5" s="1">
-        <f t="shared" ref="BF5:BF22" ca="1" si="17">BA5</f>
-        <v>69</v>
+        <f t="shared" ref="BF5:BF22" ca="1" si="15">BA5</f>
+        <v>-31.2</v>
       </c>
       <c r="BG5" s="1">
-        <f t="shared" ref="BG5:BG22" ca="1" si="18">IF(BE$3="ltr",BF5+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF5-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
-        <v>61</v>
-      </c>
-    </row>
-    <row r="6" spans="1:59" x14ac:dyDescent="0.25">
+        <f t="shared" ref="BG5:BG22" ca="1" si="16">IF(BE$3="ltr",BF5+INDIRECT(CONCATENATE("C",BE$2-1+5)),BF5-INDIRECT(CONCATENATE("C",BE$2-1+5)))</f>
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="BI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BJ5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BK5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BL5" s="1">
+        <f t="shared" ref="BL5:BL22" ca="1" si="17">BG5</f>
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="BM5" s="1">
+        <f t="shared" ref="BM5:BM22" ca="1" si="18">IF(BK$3="ltr",BL5+INDIRECT(CONCATENATE("C",BK$2-1+5)),BL5-INDIRECT(CONCATENATE("C",BK$2-1+5)))</f>
+        <v>-44.2</v>
+      </c>
+      <c r="BO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BP5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BQ5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BR5" s="1">
+        <f t="shared" ref="BR5:BR22" ca="1" si="19">BM5</f>
+        <v>-44.2</v>
+      </c>
+      <c r="BS5" s="1">
+        <f t="shared" ref="BS5:BS22" ca="1" si="20">IF(BQ$3="ltr",BR5+INDIRECT(CONCATENATE("C",BQ$2-1+5)),BR5-INDIRECT(CONCATENATE("C",BQ$2-1+5)))</f>
+        <v>-49.2</v>
+      </c>
+      <c r="BU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BV5" s="1">
+        <v>1</v>
+      </c>
+      <c r="BW5" s="1">
+        <v>0</v>
+      </c>
+      <c r="BX5" s="1">
+        <f t="shared" ref="BX5:BX22" ca="1" si="21">BS5</f>
+        <v>-49.2</v>
+      </c>
+      <c r="BY5" s="1">
+        <f t="shared" ref="BY5:BY22" ca="1" si="22">IF(BW$3="ltr",BX5+INDIRECT(CONCATENATE("C",BW$2-1+5)),BX5-INDIRECT(CONCATENATE("C",BW$2-1+5)))</f>
+        <v>-54.2</v>
+      </c>
+      <c r="CA5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CB5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CC5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CD5" s="1">
+        <f t="shared" ref="CD5:CD22" ca="1" si="23">BY5</f>
+        <v>-54.2</v>
+      </c>
+      <c r="CE5" s="1">
+        <f t="shared" ref="CE5:CE22" ca="1" si="24">IF(CC$3="ltr",CD5+INDIRECT(CONCATENATE("C",CC$2-1+5)),CD5-INDIRECT(CONCATENATE("C",CC$2-1+5)))</f>
+        <v>-63.2</v>
+      </c>
+      <c r="CG5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CI5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CJ5" s="1">
+        <f t="shared" ref="CJ5:CJ22" ca="1" si="25">CE5</f>
+        <v>-63.2</v>
+      </c>
+      <c r="CK5" s="1">
+        <f t="shared" ref="CK5:CK22" ca="1" si="26">IF(CI$3="ltr",CJ5+INDIRECT(CONCATENATE("C",CI$2-1+5)),CJ5-INDIRECT(CONCATENATE("C",CI$2-1+5)))</f>
+        <v>-68.2</v>
+      </c>
+      <c r="CM5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CN5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CO5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CP5" s="1">
+        <f t="shared" ref="CP5:CP22" ca="1" si="27">CK5</f>
+        <v>-68.2</v>
+      </c>
+      <c r="CQ5" s="1">
+        <f t="shared" ref="CQ5:CQ22" ca="1" si="28">IF(CO$3="ltr",CP5+INDIRECT(CONCATENATE("C",CO$2-1+5)),CP5-INDIRECT(CONCATENATE("C",CO$2-1+5)))</f>
+        <v>-74.2</v>
+      </c>
+      <c r="CS5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CT5" s="1">
+        <v>1</v>
+      </c>
+      <c r="CU5" s="1">
+        <v>0</v>
+      </c>
+      <c r="CV5" s="1">
+        <f t="shared" ref="CV5:CV22" ca="1" si="29">CQ5</f>
+        <v>-74.2</v>
+      </c>
+      <c r="CW5" s="1">
+        <f t="shared" ref="CW5:CW22" ca="1" si="30">IF(CU$3="ltr",CV5+INDIRECT(CONCATENATE("C",CU$2-1+5)),CV5-INDIRECT(CONCATENATE("C",CU$2-1+5)))</f>
+        <v>-79.2</v>
+      </c>
+      <c r="CY5"/>
+      <c r="CZ5"/>
+      <c r="DA5"/>
+      <c r="DB5"/>
+      <c r="DC5"/>
+      <c r="DD5"/>
+      <c r="DE5"/>
+      <c r="DF5"/>
+      <c r="DG5"/>
+      <c r="DH5"/>
+      <c r="DI5"/>
+      <c r="DJ5"/>
+      <c r="DK5"/>
+      <c r="DL5"/>
+      <c r="DM5"/>
+      <c r="DN5"/>
+      <c r="DO5"/>
+    </row>
+    <row r="6" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -1589,11 +2002,11 @@
       </c>
       <c r="D6" s="4">
         <f>get_abs_axle_loc!D6</f>
-        <v>133</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="E6" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -1606,11 +2019,11 @@
       </c>
       <c r="J6" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="K6" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="M6" s="1">
         <v>1</v>
@@ -1623,11 +2036,11 @@
       </c>
       <c r="P6" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="Q6" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>115</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="S6" s="1">
         <v>1</v>
@@ -1640,11 +2053,11 @@
       </c>
       <c r="V6" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>115</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="W6" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>110</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="Y6" s="1">
         <v>1</v>
@@ -1657,11 +2070,11 @@
       </c>
       <c r="AB6" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>110</v>
+        <v>9.7999999999999972</v>
       </c>
       <c r="AC6" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>101</v>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AE6" s="1">
         <v>1</v>
@@ -1673,12 +2086,12 @@
         <v>8</v>
       </c>
       <c r="AH6" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>101</v>
+        <f t="shared" ref="AH6:AH22" ca="1" si="31">AC6</f>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AI6" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>96</v>
+        <f t="shared" ref="AI6:AI22" ca="1" si="32">IF(AG$3="ltr",AH6+INDIRECT(CONCATENATE("C",AG$2-1+5)),AH6-INDIRECT(CONCATENATE("C",AG$2-1+5)))</f>
+        <v>-4.2000000000000028</v>
       </c>
       <c r="AK6" s="1">
         <v>1</v>
@@ -1690,12 +2103,12 @@
         <v>8</v>
       </c>
       <c r="AN6" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>96</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>-4.2000000000000028</v>
       </c>
       <c r="AO6" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-10.200000000000003</v>
       </c>
       <c r="AQ6" s="1">
         <v>1</v>
@@ -1707,12 +2120,12 @@
         <v>8</v>
       </c>
       <c r="AT6" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-10.200000000000003</v>
       </c>
       <c r="AU6" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-15.200000000000003</v>
       </c>
       <c r="AW6" s="1">
         <v>1</v>
@@ -1724,12 +2137,12 @@
         <v>8</v>
       </c>
       <c r="AZ6" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>85</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-15.200000000000003</v>
       </c>
       <c r="BA6" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>77</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-23.200000000000003</v>
       </c>
       <c r="BC6" s="1">
         <v>1</v>
@@ -1741,15 +2154,151 @@
         <v>8</v>
       </c>
       <c r="BF6" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>-23.200000000000003</v>
+      </c>
+      <c r="BG6" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BI6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BJ6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BK6" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL6" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>77</v>
-      </c>
-      <c r="BG6" s="1">
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BM6" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="BO6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BP6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BQ6" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR6" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="BS6" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-41.2</v>
+      </c>
+      <c r="BU6" s="1">
+        <v>1</v>
+      </c>
+      <c r="BV6" s="1">
+        <v>2</v>
+      </c>
+      <c r="BW6" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX6" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-41.2</v>
+      </c>
+      <c r="BY6" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-46.2</v>
+      </c>
+      <c r="CA6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CB6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CC6" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD6" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-46.2</v>
+      </c>
+      <c r="CE6" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-55.2</v>
+      </c>
+      <c r="CG6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CI6" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ6" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-55.2</v>
+      </c>
+      <c r="CK6" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-60.2</v>
+      </c>
+      <c r="CM6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CN6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CO6" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP6" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-60.2</v>
+      </c>
+      <c r="CQ6" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-66.2</v>
+      </c>
+      <c r="CS6" s="1">
+        <v>1</v>
+      </c>
+      <c r="CT6" s="1">
+        <v>2</v>
+      </c>
+      <c r="CU6" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV6" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-66.2</v>
+      </c>
+      <c r="CW6" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-71.2</v>
+      </c>
+      <c r="CY6"/>
+      <c r="CZ6"/>
+      <c r="DA6"/>
+      <c r="DB6"/>
+      <c r="DC6"/>
+      <c r="DD6"/>
+      <c r="DE6"/>
+      <c r="DF6"/>
+      <c r="DG6"/>
+      <c r="DH6"/>
+      <c r="DI6"/>
+      <c r="DJ6"/>
+      <c r="DK6"/>
+      <c r="DL6"/>
+      <c r="DM6"/>
+      <c r="DN6"/>
+      <c r="DO6"/>
+    </row>
+    <row r="7" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -1761,11 +2310,11 @@
       </c>
       <c r="D7" s="4">
         <f>get_abs_axle_loc!D7</f>
-        <v>138</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="E7" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="G7" s="1">
         <v>2</v>
@@ -1778,11 +2327,11 @@
       </c>
       <c r="J7" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="M7" s="1">
         <v>2</v>
@@ -1795,11 +2344,11 @@
       </c>
       <c r="P7" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="Q7" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="S7" s="1">
         <v>2</v>
@@ -1812,11 +2361,11 @@
       </c>
       <c r="V7" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="W7" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>115</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="Y7" s="1">
         <v>2</v>
@@ -1829,11 +2378,11 @@
       </c>
       <c r="AB7" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>115</v>
+        <v>14.799999999999997</v>
       </c>
       <c r="AC7" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>106</v>
+        <v>5.7999999999999972</v>
       </c>
       <c r="AE7" s="1">
         <v>2</v>
@@ -1845,12 +2394,12 @@
         <v>5</v>
       </c>
       <c r="AH7" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>5.7999999999999972</v>
       </c>
       <c r="AI7" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AK7" s="1">
         <v>2</v>
@@ -1862,12 +2411,12 @@
         <v>5</v>
       </c>
       <c r="AN7" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0.79999999999999716</v>
       </c>
       <c r="AO7" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-5.2000000000000028</v>
       </c>
       <c r="AQ7" s="1">
         <v>2</v>
@@ -1879,12 +2428,12 @@
         <v>5</v>
       </c>
       <c r="AT7" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-5.2000000000000028</v>
       </c>
       <c r="AU7" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-10.200000000000003</v>
       </c>
       <c r="AW7" s="1">
         <v>2</v>
@@ -1896,12 +2445,12 @@
         <v>5</v>
       </c>
       <c r="AZ7" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>90</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-10.200000000000003</v>
       </c>
       <c r="BA7" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>82</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-18.200000000000003</v>
       </c>
       <c r="BC7" s="1">
         <v>2</v>
@@ -1913,15 +2462,151 @@
         <v>5</v>
       </c>
       <c r="BF7" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>-18.200000000000003</v>
+      </c>
+      <c r="BG7" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BI7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BJ7" s="1">
+        <v>3</v>
+      </c>
+      <c r="BK7" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL7" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>82</v>
-      </c>
-      <c r="BG7" s="1">
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BM7" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BO7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BP7" s="1">
+        <v>3</v>
+      </c>
+      <c r="BQ7" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR7" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BS7" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="BU7" s="1">
+        <v>2</v>
+      </c>
+      <c r="BV7" s="1">
+        <v>3</v>
+      </c>
+      <c r="BW7" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX7" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="BY7" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-41.2</v>
+      </c>
+      <c r="CA7" s="1">
+        <v>2</v>
+      </c>
+      <c r="CB7" s="1">
+        <v>3</v>
+      </c>
+      <c r="CC7" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD7" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-41.2</v>
+      </c>
+      <c r="CE7" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-50.2</v>
+      </c>
+      <c r="CG7" s="1">
+        <v>2</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>3</v>
+      </c>
+      <c r="CI7" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ7" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-50.2</v>
+      </c>
+      <c r="CK7" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-55.2</v>
+      </c>
+      <c r="CM7" s="1">
+        <v>2</v>
+      </c>
+      <c r="CN7" s="1">
+        <v>3</v>
+      </c>
+      <c r="CO7" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP7" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-55.2</v>
+      </c>
+      <c r="CQ7" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-61.2</v>
+      </c>
+      <c r="CS7" s="1">
+        <v>2</v>
+      </c>
+      <c r="CT7" s="1">
+        <v>3</v>
+      </c>
+      <c r="CU7" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV7" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-61.2</v>
+      </c>
+      <c r="CW7" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-66.2</v>
+      </c>
+      <c r="CY7"/>
+      <c r="CZ7"/>
+      <c r="DA7"/>
+      <c r="DB7"/>
+      <c r="DC7"/>
+      <c r="DD7"/>
+      <c r="DE7"/>
+      <c r="DF7"/>
+      <c r="DG7"/>
+      <c r="DH7"/>
+      <c r="DI7"/>
+      <c r="DJ7"/>
+      <c r="DK7"/>
+      <c r="DL7"/>
+      <c r="DM7"/>
+      <c r="DN7"/>
+      <c r="DO7"/>
+    </row>
+    <row r="8" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1933,11 +2618,11 @@
       </c>
       <c r="D8" s="4">
         <f>get_abs_axle_loc!D8</f>
-        <v>143</v>
+        <v>42.8</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>135</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -1950,11 +2635,11 @@
       </c>
       <c r="J8" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>135</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="M8" s="1">
         <v>3</v>
@@ -1967,11 +2652,11 @@
       </c>
       <c r="P8" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="Q8" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="S8" s="1">
         <v>3</v>
@@ -1984,11 +2669,11 @@
       </c>
       <c r="V8" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="W8" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="Y8" s="1">
         <v>3</v>
@@ -2001,11 +2686,11 @@
       </c>
       <c r="AB8" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>120</v>
+        <v>19.799999999999997</v>
       </c>
       <c r="AC8" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>111</v>
+        <v>10.799999999999997</v>
       </c>
       <c r="AE8" s="1">
         <v>3</v>
@@ -2017,12 +2702,12 @@
         <v>5</v>
       </c>
       <c r="AH8" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>10.799999999999997</v>
       </c>
       <c r="AI8" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>5.7999999999999972</v>
       </c>
       <c r="AK8" s="1">
         <v>3</v>
@@ -2034,12 +2719,12 @@
         <v>5</v>
       </c>
       <c r="AN8" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>5.7999999999999972</v>
       </c>
       <c r="AO8" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="AQ8" s="1">
         <v>3</v>
@@ -2051,12 +2736,12 @@
         <v>5</v>
       </c>
       <c r="AT8" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="AU8" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-5.2000000000000028</v>
       </c>
       <c r="AW8" s="1">
         <v>3</v>
@@ -2068,12 +2753,12 @@
         <v>5</v>
       </c>
       <c r="AZ8" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>95</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-5.2000000000000028</v>
       </c>
       <c r="BA8" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>87</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-13.200000000000003</v>
       </c>
       <c r="BC8" s="1">
         <v>3</v>
@@ -2085,15 +2770,151 @@
         <v>5</v>
       </c>
       <c r="BF8" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="BG8" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>3</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>4</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL8" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>87</v>
-      </c>
-      <c r="BG8" s="1">
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="BM8" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>3</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>4</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR8" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BS8" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>3</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>4</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX8" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="BY8" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>3</v>
+      </c>
+      <c r="CB8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CC8" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD8" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="CE8" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-45.2</v>
+      </c>
+      <c r="CG8" s="1">
+        <v>3</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CI8" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ8" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-45.2</v>
+      </c>
+      <c r="CK8" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-50.2</v>
+      </c>
+      <c r="CM8" s="1">
+        <v>3</v>
+      </c>
+      <c r="CN8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CO8" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP8" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-50.2</v>
+      </c>
+      <c r="CQ8" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-56.2</v>
+      </c>
+      <c r="CS8" s="1">
+        <v>3</v>
+      </c>
+      <c r="CT8" s="1">
+        <v>4</v>
+      </c>
+      <c r="CU8" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV8" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-56.2</v>
+      </c>
+      <c r="CW8" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-61.2</v>
+      </c>
+      <c r="CY8"/>
+      <c r="CZ8"/>
+      <c r="DA8"/>
+      <c r="DB8"/>
+      <c r="DC8"/>
+      <c r="DD8"/>
+      <c r="DE8"/>
+      <c r="DF8"/>
+      <c r="DG8"/>
+      <c r="DH8"/>
+      <c r="DI8"/>
+      <c r="DJ8"/>
+      <c r="DK8"/>
+      <c r="DL8"/>
+      <c r="DM8"/>
+      <c r="DN8"/>
+      <c r="DO8"/>
+    </row>
+    <row r="9" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -2105,11 +2926,11 @@
       </c>
       <c r="D9" s="4">
         <f>get_abs_axle_loc!D9</f>
-        <v>148</v>
+        <v>47.8</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>140</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="G9" s="1">
         <v>4</v>
@@ -2122,11 +2943,11 @@
       </c>
       <c r="J9" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>140</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>135</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="M9" s="1">
         <v>4</v>
@@ -2139,11 +2960,11 @@
       </c>
       <c r="P9" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>135</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="Q9" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="S9" s="1">
         <v>4</v>
@@ -2156,11 +2977,11 @@
       </c>
       <c r="V9" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="W9" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="Y9" s="1">
         <v>4</v>
@@ -2173,11 +2994,11 @@
       </c>
       <c r="AB9" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="AC9" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>116</v>
+        <v>15.799999999999997</v>
       </c>
       <c r="AE9" s="1">
         <v>4</v>
@@ -2189,12 +3010,12 @@
         <v>5</v>
       </c>
       <c r="AH9" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>116</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>15.799999999999997</v>
       </c>
       <c r="AI9" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>10.799999999999997</v>
       </c>
       <c r="AK9" s="1">
         <v>4</v>
@@ -2206,12 +3027,12 @@
         <v>5</v>
       </c>
       <c r="AN9" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>111</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>10.799999999999997</v>
       </c>
       <c r="AO9" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>4.7999999999999972</v>
       </c>
       <c r="AQ9" s="1">
         <v>4</v>
@@ -2223,12 +3044,12 @@
         <v>5</v>
       </c>
       <c r="AT9" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>105</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>4.7999999999999972</v>
       </c>
       <c r="AU9" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="AW9" s="1">
         <v>4</v>
@@ -2240,12 +3061,12 @@
         <v>5</v>
       </c>
       <c r="AZ9" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>100</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>-0.20000000000000284</v>
       </c>
       <c r="BA9" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>92</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>-8.2000000000000028</v>
       </c>
       <c r="BC9" s="1">
         <v>4</v>
@@ -2257,15 +3078,151 @@
         <v>5</v>
       </c>
       <c r="BF9" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>-8.2000000000000028</v>
+      </c>
+      <c r="BG9" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-16.200000000000003</v>
+      </c>
+      <c r="BI9" s="1">
+        <v>4</v>
+      </c>
+      <c r="BJ9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BK9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL9" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>92</v>
-      </c>
-      <c r="BG9" s="1">
+        <v>-16.200000000000003</v>
+      </c>
+      <c r="BM9" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="BO9" s="1">
+        <v>4</v>
+      </c>
+      <c r="BP9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BQ9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR9" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="BS9" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BU9" s="1">
+        <v>4</v>
+      </c>
+      <c r="BV9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BW9" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX9" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="BY9" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CA9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CB9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CC9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD9" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CE9" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="CG9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CI9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ9" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="CK9" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-45.2</v>
+      </c>
+      <c r="CM9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CN9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CO9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP9" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-45.2</v>
+      </c>
+      <c r="CQ9" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-51.2</v>
+      </c>
+      <c r="CS9" s="1">
+        <v>4</v>
+      </c>
+      <c r="CT9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CU9" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV9" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-51.2</v>
+      </c>
+      <c r="CW9" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-56.2</v>
+      </c>
+      <c r="CY9"/>
+      <c r="CZ9"/>
+      <c r="DA9"/>
+      <c r="DB9"/>
+      <c r="DC9"/>
+      <c r="DD9"/>
+      <c r="DE9"/>
+      <c r="DF9"/>
+      <c r="DG9"/>
+      <c r="DH9"/>
+      <c r="DI9"/>
+      <c r="DJ9"/>
+      <c r="DK9"/>
+      <c r="DL9"/>
+      <c r="DM9"/>
+      <c r="DN9"/>
+      <c r="DO9"/>
+    </row>
+    <row r="10" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -2277,11 +3234,11 @@
       </c>
       <c r="D10" s="4">
         <f>get_abs_axle_loc!D10</f>
-        <v>157</v>
+        <v>56.8</v>
       </c>
       <c r="E10" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>149</v>
+        <v>48.8</v>
       </c>
       <c r="G10" s="1">
         <v>5</v>
@@ -2294,11 +3251,11 @@
       </c>
       <c r="J10" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>149</v>
+        <v>48.8</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>144</v>
+        <v>43.8</v>
       </c>
       <c r="M10" s="1">
         <v>5</v>
@@ -2311,11 +3268,11 @@
       </c>
       <c r="P10" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>144</v>
+        <v>43.8</v>
       </c>
       <c r="Q10" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>139</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
@@ -2328,11 +3285,11 @@
       </c>
       <c r="V10" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>139</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="W10" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>134</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="Y10" s="1">
         <v>5</v>
@@ -2345,11 +3302,11 @@
       </c>
       <c r="AB10" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>134</v>
+        <v>33.799999999999997</v>
       </c>
       <c r="AC10" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>125</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="AE10" s="1">
         <v>5</v>
@@ -2361,12 +3318,12 @@
         <v>9</v>
       </c>
       <c r="AH10" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AI10" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>19.799999999999997</v>
       </c>
       <c r="AK10" s="1">
         <v>5</v>
@@ -2378,12 +3335,12 @@
         <v>9</v>
       </c>
       <c r="AN10" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>19.799999999999997</v>
       </c>
       <c r="AO10" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="AQ10" s="1">
         <v>5</v>
@@ -2395,12 +3352,12 @@
         <v>9</v>
       </c>
       <c r="AT10" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="AU10" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>109</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>8.7999999999999972</v>
       </c>
       <c r="AW10" s="1">
         <v>5</v>
@@ -2412,12 +3369,12 @@
         <v>9</v>
       </c>
       <c r="AZ10" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>109</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>8.7999999999999972</v>
       </c>
       <c r="BA10" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>101</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>0.79999999999999716</v>
       </c>
       <c r="BC10" s="1">
         <v>5</v>
@@ -2429,15 +3386,151 @@
         <v>9</v>
       </c>
       <c r="BF10" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="BG10" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="BI10" s="1">
+        <v>5</v>
+      </c>
+      <c r="BJ10" s="1">
+        <v>6</v>
+      </c>
+      <c r="BK10" s="1">
+        <v>9</v>
+      </c>
+      <c r="BL10" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>101</v>
-      </c>
-      <c r="BG10" s="1">
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="BM10" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>93</v>
-      </c>
-    </row>
-    <row r="11" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="BO10" s="1">
+        <v>5</v>
+      </c>
+      <c r="BP10" s="1">
+        <v>6</v>
+      </c>
+      <c r="BQ10" s="1">
+        <v>9</v>
+      </c>
+      <c r="BR10" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="BS10" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="BU10" s="1">
+        <v>5</v>
+      </c>
+      <c r="BV10" s="1">
+        <v>6</v>
+      </c>
+      <c r="BW10" s="1">
+        <v>9</v>
+      </c>
+      <c r="BX10" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="BY10" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-22.200000000000003</v>
+      </c>
+      <c r="CA10" s="1">
+        <v>5</v>
+      </c>
+      <c r="CB10" s="1">
+        <v>6</v>
+      </c>
+      <c r="CC10" s="1">
+        <v>9</v>
+      </c>
+      <c r="CD10" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-22.200000000000003</v>
+      </c>
+      <c r="CE10" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CG10" s="1">
+        <v>5</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>6</v>
+      </c>
+      <c r="CI10" s="1">
+        <v>9</v>
+      </c>
+      <c r="CJ10" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CK10" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="CM10" s="1">
+        <v>5</v>
+      </c>
+      <c r="CN10" s="1">
+        <v>6</v>
+      </c>
+      <c r="CO10" s="1">
+        <v>9</v>
+      </c>
+      <c r="CP10" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="CQ10" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-42.2</v>
+      </c>
+      <c r="CS10" s="1">
+        <v>5</v>
+      </c>
+      <c r="CT10" s="1">
+        <v>6</v>
+      </c>
+      <c r="CU10" s="1">
+        <v>9</v>
+      </c>
+      <c r="CV10" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-42.2</v>
+      </c>
+      <c r="CW10" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-47.2</v>
+      </c>
+      <c r="CY10"/>
+      <c r="CZ10"/>
+      <c r="DA10"/>
+      <c r="DB10"/>
+      <c r="DC10"/>
+      <c r="DD10"/>
+      <c r="DE10"/>
+      <c r="DF10"/>
+      <c r="DG10"/>
+      <c r="DH10"/>
+      <c r="DI10"/>
+      <c r="DJ10"/>
+      <c r="DK10"/>
+      <c r="DL10"/>
+      <c r="DM10"/>
+      <c r="DN10"/>
+      <c r="DO10"/>
+    </row>
+    <row r="11" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -2449,11 +3542,11 @@
       </c>
       <c r="D11" s="4">
         <f>get_abs_axle_loc!D11</f>
-        <v>162</v>
+        <v>61.8</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>154</v>
+        <v>53.8</v>
       </c>
       <c r="G11" s="1">
         <v>6</v>
@@ -2466,11 +3559,11 @@
       </c>
       <c r="J11" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>154</v>
+        <v>53.8</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>149</v>
+        <v>48.8</v>
       </c>
       <c r="M11" s="1">
         <v>6</v>
@@ -2483,11 +3576,11 @@
       </c>
       <c r="P11" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>149</v>
+        <v>48.8</v>
       </c>
       <c r="Q11" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>144</v>
+        <v>43.8</v>
       </c>
       <c r="S11" s="1">
         <v>6</v>
@@ -2500,11 +3593,11 @@
       </c>
       <c r="V11" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>144</v>
+        <v>43.8</v>
       </c>
       <c r="W11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>139</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="Y11" s="1">
         <v>6</v>
@@ -2517,11 +3610,11 @@
       </c>
       <c r="AB11" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>139</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="AC11" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>130</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="AE11" s="1">
         <v>6</v>
@@ -2533,12 +3626,12 @@
         <v>5</v>
       </c>
       <c r="AH11" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>29.799999999999997</v>
       </c>
       <c r="AI11" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AK11" s="1">
         <v>6</v>
@@ -2550,12 +3643,12 @@
         <v>5</v>
       </c>
       <c r="AN11" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AO11" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>18.799999999999997</v>
       </c>
       <c r="AQ11" s="1">
         <v>6</v>
@@ -2567,12 +3660,12 @@
         <v>5</v>
       </c>
       <c r="AT11" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>119</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>18.799999999999997</v>
       </c>
       <c r="AU11" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="AW11" s="1">
         <v>6</v>
@@ -2584,12 +3677,12 @@
         <v>5</v>
       </c>
       <c r="AZ11" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>114</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>13.799999999999997</v>
       </c>
       <c r="BA11" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>106</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>5.7999999999999972</v>
       </c>
       <c r="BC11" s="1">
         <v>6</v>
@@ -2601,15 +3694,151 @@
         <v>5</v>
       </c>
       <c r="BF11" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="BG11" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="BI11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BJ11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BK11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL11" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>106</v>
-      </c>
-      <c r="BG11" s="1">
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="BM11" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="BO11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BP11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BQ11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR11" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="BS11" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="BU11" s="1">
+        <v>6</v>
+      </c>
+      <c r="BV11" s="1">
+        <v>7</v>
+      </c>
+      <c r="BW11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX11" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="BY11" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="CA11" s="1">
+        <v>6</v>
+      </c>
+      <c r="CB11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CC11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD11" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="CE11" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="CG11" s="1">
+        <v>6</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CI11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ11" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="CK11" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CM11" s="1">
+        <v>6</v>
+      </c>
+      <c r="CN11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CO11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP11" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CQ11" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="CS11" s="1">
+        <v>6</v>
+      </c>
+      <c r="CT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="CU11" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV11" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="CW11" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-42.2</v>
+      </c>
+      <c r="CY11"/>
+      <c r="CZ11"/>
+      <c r="DA11"/>
+      <c r="DB11"/>
+      <c r="DC11"/>
+      <c r="DD11"/>
+      <c r="DE11"/>
+      <c r="DF11"/>
+      <c r="DG11"/>
+      <c r="DH11"/>
+      <c r="DI11"/>
+      <c r="DJ11"/>
+      <c r="DK11"/>
+      <c r="DL11"/>
+      <c r="DM11"/>
+      <c r="DN11"/>
+      <c r="DO11"/>
+    </row>
+    <row r="12" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -2621,11 +3850,11 @@
       </c>
       <c r="D12" s="4">
         <f>get_abs_axle_loc!D12</f>
-        <v>168</v>
+        <v>67.8</v>
       </c>
       <c r="E12" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>160</v>
+        <v>59.8</v>
       </c>
       <c r="G12" s="1">
         <v>7</v>
@@ -2638,11 +3867,11 @@
       </c>
       <c r="J12" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>160</v>
+        <v>59.8</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>155</v>
+        <v>54.8</v>
       </c>
       <c r="M12" s="1">
         <v>7</v>
@@ -2655,11 +3884,11 @@
       </c>
       <c r="P12" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>155</v>
+        <v>54.8</v>
       </c>
       <c r="Q12" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>150</v>
+        <v>49.8</v>
       </c>
       <c r="S12" s="1">
         <v>7</v>
@@ -2672,11 +3901,11 @@
       </c>
       <c r="V12" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>150</v>
+        <v>49.8</v>
       </c>
       <c r="W12" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>145</v>
+        <v>44.8</v>
       </c>
       <c r="Y12" s="1">
         <v>7</v>
@@ -2689,11 +3918,11 @@
       </c>
       <c r="AB12" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>145</v>
+        <v>44.8</v>
       </c>
       <c r="AC12" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>136</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="AE12" s="1">
         <v>7</v>
@@ -2705,12 +3934,12 @@
         <v>6</v>
       </c>
       <c r="AH12" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>35.799999999999997</v>
       </c>
       <c r="AI12" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>131</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>30.799999999999997</v>
       </c>
       <c r="AK12" s="1">
         <v>7</v>
@@ -2722,12 +3951,12 @@
         <v>6</v>
       </c>
       <c r="AN12" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>131</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>30.799999999999997</v>
       </c>
       <c r="AO12" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AQ12" s="1">
         <v>7</v>
@@ -2739,12 +3968,12 @@
         <v>6</v>
       </c>
       <c r="AT12" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AU12" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>19.799999999999997</v>
       </c>
       <c r="AW12" s="1">
         <v>7</v>
@@ -2756,12 +3985,12 @@
         <v>6</v>
       </c>
       <c r="AZ12" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>120</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>19.799999999999997</v>
       </c>
       <c r="BA12" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>112</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>11.799999999999997</v>
       </c>
       <c r="BC12" s="1">
         <v>7</v>
@@ -2773,15 +4002,151 @@
         <v>6</v>
       </c>
       <c r="BF12" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="BG12" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="BI12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BJ12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BK12" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL12" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>112</v>
-      </c>
-      <c r="BG12" s="1">
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="BM12" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>104</v>
-      </c>
-    </row>
-    <row r="13" spans="1:59" x14ac:dyDescent="0.25">
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="BO12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BP12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BQ12" s="1">
+        <v>6</v>
+      </c>
+      <c r="BR12" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="BS12" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="BU12" s="1">
+        <v>7</v>
+      </c>
+      <c r="BV12" s="1">
+        <v>8</v>
+      </c>
+      <c r="BW12" s="1">
+        <v>6</v>
+      </c>
+      <c r="BX12" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="BY12" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-11.200000000000003</v>
+      </c>
+      <c r="CA12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CB12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CC12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD12" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-11.200000000000003</v>
+      </c>
+      <c r="CE12" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="CG12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CI12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CJ12" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="CK12" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="CM12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CN12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CO12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CP12" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="CQ12" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CS12" s="1">
+        <v>7</v>
+      </c>
+      <c r="CT12" s="1">
+        <v>8</v>
+      </c>
+      <c r="CU12" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV12" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CW12" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="CY12"/>
+      <c r="CZ12"/>
+      <c r="DA12"/>
+      <c r="DB12"/>
+      <c r="DC12"/>
+      <c r="DD12"/>
+      <c r="DE12"/>
+      <c r="DF12"/>
+      <c r="DG12"/>
+      <c r="DH12"/>
+      <c r="DI12"/>
+      <c r="DJ12"/>
+      <c r="DK12"/>
+      <c r="DL12"/>
+      <c r="DM12"/>
+      <c r="DN12"/>
+      <c r="DO12"/>
+    </row>
+    <row r="13" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -2793,11 +4158,11 @@
       </c>
       <c r="D13" s="4">
         <f>get_abs_axle_loc!D13</f>
-        <v>173</v>
+        <v>72.8</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>165</v>
+        <v>64.8</v>
       </c>
       <c r="G13" s="1">
         <v>8</v>
@@ -2810,11 +4175,11 @@
       </c>
       <c r="J13" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>165</v>
+        <v>64.8</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>160</v>
+        <v>59.8</v>
       </c>
       <c r="M13" s="1">
         <v>8</v>
@@ -2827,11 +4192,11 @@
       </c>
       <c r="P13" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>160</v>
+        <v>59.8</v>
       </c>
       <c r="Q13" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>155</v>
+        <v>54.8</v>
       </c>
       <c r="S13" s="1">
         <v>8</v>
@@ -2844,11 +4209,11 @@
       </c>
       <c r="V13" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>155</v>
+        <v>54.8</v>
       </c>
       <c r="W13" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>150</v>
+        <v>49.8</v>
       </c>
       <c r="Y13" s="1">
         <v>8</v>
@@ -2861,11 +4226,11 @@
       </c>
       <c r="AB13" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>150</v>
+        <v>49.8</v>
       </c>
       <c r="AC13" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>141</v>
+        <v>40.799999999999997</v>
       </c>
       <c r="AE13" s="1">
         <v>8</v>
@@ -2877,12 +4242,12 @@
         <v>5</v>
       </c>
       <c r="AH13" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>141</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>40.799999999999997</v>
       </c>
       <c r="AI13" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>35.799999999999997</v>
       </c>
       <c r="AK13" s="1">
         <v>8</v>
@@ -2894,12 +4259,12 @@
         <v>5</v>
       </c>
       <c r="AN13" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>136</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>35.799999999999997</v>
       </c>
       <c r="AO13" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>29.799999999999997</v>
       </c>
       <c r="AQ13" s="1">
         <v>8</v>
@@ -2911,12 +4276,12 @@
         <v>5</v>
       </c>
       <c r="AT13" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>130</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>29.799999999999997</v>
       </c>
       <c r="AU13" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="AW13" s="1">
         <v>8</v>
@@ -2928,12 +4293,12 @@
         <v>5</v>
       </c>
       <c r="AZ13" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="BA13" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>117</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>16.799999999999997</v>
       </c>
       <c r="BC13" s="1">
         <v>8</v>
@@ -2945,15 +4310,151 @@
         <v>5</v>
       </c>
       <c r="BF13" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="BG13" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="BI13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BJ13" s="1">
+        <v>9</v>
+      </c>
+      <c r="BK13" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL13" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>117</v>
-      </c>
-      <c r="BG13" s="1">
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="BM13" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>109</v>
-      </c>
-    </row>
-    <row r="14" spans="1:59" x14ac:dyDescent="0.25">
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="BO13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BP13" s="1">
+        <v>9</v>
+      </c>
+      <c r="BQ13" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR13" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="BS13" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="BU13" s="1">
+        <v>8</v>
+      </c>
+      <c r="BV13" s="1">
+        <v>9</v>
+      </c>
+      <c r="BW13" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX13" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="BY13" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="CA13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CB13" s="1">
+        <v>9</v>
+      </c>
+      <c r="CC13" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD13" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="CE13" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-15.200000000000003</v>
+      </c>
+      <c r="CG13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>9</v>
+      </c>
+      <c r="CI13" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ13" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-15.200000000000003</v>
+      </c>
+      <c r="CK13" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="CM13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CN13" s="1">
+        <v>9</v>
+      </c>
+      <c r="CO13" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP13" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="CQ13" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="CS13" s="1">
+        <v>8</v>
+      </c>
+      <c r="CT13" s="1">
+        <v>9</v>
+      </c>
+      <c r="CU13" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV13" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="CW13" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="CY13"/>
+      <c r="CZ13"/>
+      <c r="DA13"/>
+      <c r="DB13"/>
+      <c r="DC13"/>
+      <c r="DD13"/>
+      <c r="DE13"/>
+      <c r="DF13"/>
+      <c r="DG13"/>
+      <c r="DH13"/>
+      <c r="DI13"/>
+      <c r="DJ13"/>
+      <c r="DK13"/>
+      <c r="DL13"/>
+      <c r="DM13"/>
+      <c r="DN13"/>
+      <c r="DO13"/>
+    </row>
+    <row r="14" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -2965,11 +4466,11 @@
       </c>
       <c r="D14" s="4">
         <f>get_abs_axle_loc!D14</f>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>173</v>
+        <v>72.8</v>
       </c>
       <c r="G14" s="1">
         <v>9</v>
@@ -2982,11 +4483,11 @@
       </c>
       <c r="J14" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>173</v>
+        <v>72.8</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>168</v>
+        <v>67.8</v>
       </c>
       <c r="M14" s="1">
         <v>9</v>
@@ -2999,11 +4500,11 @@
       </c>
       <c r="P14" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>168</v>
+        <v>67.8</v>
       </c>
       <c r="Q14" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>163</v>
+        <v>62.8</v>
       </c>
       <c r="S14" s="1">
         <v>9</v>
@@ -3016,11 +4517,11 @@
       </c>
       <c r="V14" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>163</v>
+        <v>62.8</v>
       </c>
       <c r="W14" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>158</v>
+        <v>57.8</v>
       </c>
       <c r="Y14" s="1">
         <v>9</v>
@@ -3033,11 +4534,11 @@
       </c>
       <c r="AB14" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>158</v>
+        <v>57.8</v>
       </c>
       <c r="AC14" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>149</v>
+        <v>48.8</v>
       </c>
       <c r="AE14" s="1">
         <v>9</v>
@@ -3049,12 +4550,12 @@
         <v>8</v>
       </c>
       <c r="AH14" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>149</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>48.8</v>
       </c>
       <c r="AI14" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>144</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>43.8</v>
       </c>
       <c r="AK14" s="1">
         <v>9</v>
@@ -3066,12 +4567,12 @@
         <v>8</v>
       </c>
       <c r="AN14" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>144</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>43.8</v>
       </c>
       <c r="AO14" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>138</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="AQ14" s="1">
         <v>9</v>
@@ -3083,12 +4584,12 @@
         <v>8</v>
       </c>
       <c r="AT14" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>138</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="AU14" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>32.799999999999997</v>
       </c>
       <c r="AW14" s="1">
         <v>9</v>
@@ -3100,12 +4601,12 @@
         <v>8</v>
       </c>
       <c r="AZ14" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>32.799999999999997</v>
       </c>
       <c r="BA14" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>125</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>24.799999999999997</v>
       </c>
       <c r="BC14" s="1">
         <v>9</v>
@@ -3117,15 +4618,151 @@
         <v>8</v>
       </c>
       <c r="BF14" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BG14" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="BI14" s="1">
+        <v>9</v>
+      </c>
+      <c r="BJ14" s="1">
+        <v>10</v>
+      </c>
+      <c r="BK14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL14" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>125</v>
-      </c>
-      <c r="BG14" s="1">
+        <v>16.799999999999997</v>
+      </c>
+      <c r="BM14" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>117</v>
-      </c>
-    </row>
-    <row r="15" spans="1:59" x14ac:dyDescent="0.25">
+        <v>11.799999999999997</v>
+      </c>
+      <c r="BO14" s="1">
+        <v>9</v>
+      </c>
+      <c r="BP14" s="1">
+        <v>10</v>
+      </c>
+      <c r="BQ14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR14" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="BS14" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="BU14" s="1">
+        <v>9</v>
+      </c>
+      <c r="BV14" s="1">
+        <v>10</v>
+      </c>
+      <c r="BW14" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX14" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="BY14" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="CA14" s="1">
+        <v>9</v>
+      </c>
+      <c r="CB14" s="1">
+        <v>10</v>
+      </c>
+      <c r="CC14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD14" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="CE14" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="CG14" s="1">
+        <v>9</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>10</v>
+      </c>
+      <c r="CI14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ14" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="CK14" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="CM14" s="1">
+        <v>9</v>
+      </c>
+      <c r="CN14" s="1">
+        <v>10</v>
+      </c>
+      <c r="CO14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP14" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="CQ14" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-18.200000000000003</v>
+      </c>
+      <c r="CS14" s="1">
+        <v>9</v>
+      </c>
+      <c r="CT14" s="1">
+        <v>10</v>
+      </c>
+      <c r="CU14" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV14" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-18.200000000000003</v>
+      </c>
+      <c r="CW14" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-23.200000000000003</v>
+      </c>
+      <c r="CY14"/>
+      <c r="CZ14"/>
+      <c r="DA14"/>
+      <c r="DB14"/>
+      <c r="DC14"/>
+      <c r="DD14"/>
+      <c r="DE14"/>
+      <c r="DF14"/>
+      <c r="DG14"/>
+      <c r="DH14"/>
+      <c r="DI14"/>
+      <c r="DJ14"/>
+      <c r="DK14"/>
+      <c r="DL14"/>
+      <c r="DM14"/>
+      <c r="DN14"/>
+      <c r="DO14"/>
+    </row>
+    <row r="15" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -3137,11 +4774,11 @@
       </c>
       <c r="D15" s="4">
         <f>get_abs_axle_loc!D15</f>
-        <v>189</v>
+        <v>88.8</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="G15" s="1">
         <v>10</v>
@@ -3154,11 +4791,11 @@
       </c>
       <c r="J15" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="M15" s="1">
         <v>10</v>
@@ -3171,11 +4808,11 @@
       </c>
       <c r="P15" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="Q15" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>171</v>
+        <v>70.8</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -3188,11 +4825,11 @@
       </c>
       <c r="V15" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>171</v>
+        <v>70.8</v>
       </c>
       <c r="W15" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>166</v>
+        <v>65.8</v>
       </c>
       <c r="Y15" s="1">
         <v>10</v>
@@ -3205,11 +4842,11 @@
       </c>
       <c r="AB15" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>166</v>
+        <v>65.8</v>
       </c>
       <c r="AC15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>157</v>
+        <v>56.8</v>
       </c>
       <c r="AE15" s="1">
         <v>10</v>
@@ -3221,12 +4858,12 @@
         <v>8</v>
       </c>
       <c r="AH15" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>56.8</v>
       </c>
       <c r="AI15" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>152</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>51.8</v>
       </c>
       <c r="AK15" s="1">
         <v>10</v>
@@ -3238,12 +4875,12 @@
         <v>8</v>
       </c>
       <c r="AN15" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>152</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>51.8</v>
       </c>
       <c r="AO15" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>45.8</v>
       </c>
       <c r="AQ15" s="1">
         <v>10</v>
@@ -3255,12 +4892,12 @@
         <v>8</v>
       </c>
       <c r="AT15" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>45.8</v>
       </c>
       <c r="AU15" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>141</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>40.799999999999997</v>
       </c>
       <c r="AW15" s="1">
         <v>10</v>
@@ -3272,12 +4909,12 @@
         <v>8</v>
       </c>
       <c r="AZ15" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>141</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>40.799999999999997</v>
       </c>
       <c r="BA15" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>133</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>32.799999999999997</v>
       </c>
       <c r="BC15" s="1">
         <v>10</v>
@@ -3289,15 +4926,151 @@
         <v>8</v>
       </c>
       <c r="BF15" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="BG15" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BI15" s="1">
+        <v>10</v>
+      </c>
+      <c r="BJ15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BK15" s="1">
+        <v>8</v>
+      </c>
+      <c r="BL15" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>133</v>
-      </c>
-      <c r="BG15" s="1">
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BM15" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="16" spans="1:59" x14ac:dyDescent="0.25">
+        <v>19.799999999999997</v>
+      </c>
+      <c r="BO15" s="1">
+        <v>10</v>
+      </c>
+      <c r="BP15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BQ15" s="1">
+        <v>8</v>
+      </c>
+      <c r="BR15" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="BS15" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="BU15" s="1">
+        <v>10</v>
+      </c>
+      <c r="BV15" s="1">
+        <v>11</v>
+      </c>
+      <c r="BW15" s="1">
+        <v>8</v>
+      </c>
+      <c r="BX15" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="BY15" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="CA15" s="1">
+        <v>10</v>
+      </c>
+      <c r="CB15" s="1">
+        <v>11</v>
+      </c>
+      <c r="CC15" s="1">
+        <v>8</v>
+      </c>
+      <c r="CD15" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="CE15" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="CG15" s="1">
+        <v>10</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>11</v>
+      </c>
+      <c r="CI15" s="1">
+        <v>8</v>
+      </c>
+      <c r="CJ15" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="CK15" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="CM15" s="1">
+        <v>10</v>
+      </c>
+      <c r="CN15" s="1">
+        <v>11</v>
+      </c>
+      <c r="CO15" s="1">
+        <v>8</v>
+      </c>
+      <c r="CP15" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="CQ15" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="CS15" s="1">
+        <v>10</v>
+      </c>
+      <c r="CT15" s="1">
+        <v>11</v>
+      </c>
+      <c r="CU15" s="1">
+        <v>8</v>
+      </c>
+      <c r="CV15" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="CW15" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-15.200000000000003</v>
+      </c>
+      <c r="CY15"/>
+      <c r="CZ15"/>
+      <c r="DA15"/>
+      <c r="DB15"/>
+      <c r="DC15"/>
+      <c r="DD15"/>
+      <c r="DE15"/>
+      <c r="DF15"/>
+      <c r="DG15"/>
+      <c r="DH15"/>
+      <c r="DI15"/>
+      <c r="DJ15"/>
+      <c r="DK15"/>
+      <c r="DL15"/>
+      <c r="DM15"/>
+      <c r="DN15"/>
+      <c r="DO15"/>
+    </row>
+    <row r="16" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -3309,11 +5082,11 @@
       </c>
       <c r="D16" s="4">
         <f>get_abs_axle_loc!D16</f>
-        <v>194</v>
+        <v>93.8</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="G16" s="1">
         <v>11</v>
@@ -3326,11 +5099,11 @@
       </c>
       <c r="J16" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="M16" s="1">
         <v>11</v>
@@ -3343,11 +5116,11 @@
       </c>
       <c r="P16" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="Q16" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="S16" s="1">
         <v>11</v>
@@ -3360,11 +5133,11 @@
       </c>
       <c r="V16" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="W16" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>171</v>
+        <v>70.8</v>
       </c>
       <c r="Y16" s="1">
         <v>11</v>
@@ -3377,11 +5150,11 @@
       </c>
       <c r="AB16" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>171</v>
+        <v>70.8</v>
       </c>
       <c r="AC16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>162</v>
+        <v>61.8</v>
       </c>
       <c r="AE16" s="1">
         <v>11</v>
@@ -3393,12 +5166,12 @@
         <v>5</v>
       </c>
       <c r="AH16" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>61.8</v>
       </c>
       <c r="AI16" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>56.8</v>
       </c>
       <c r="AK16" s="1">
         <v>11</v>
@@ -3410,12 +5183,12 @@
         <v>5</v>
       </c>
       <c r="AN16" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>56.8</v>
       </c>
       <c r="AO16" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>50.8</v>
       </c>
       <c r="AQ16" s="1">
         <v>11</v>
@@ -3427,12 +5200,12 @@
         <v>5</v>
       </c>
       <c r="AT16" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>50.8</v>
       </c>
       <c r="AU16" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>45.8</v>
       </c>
       <c r="AW16" s="1">
         <v>11</v>
@@ -3444,12 +5217,12 @@
         <v>5</v>
       </c>
       <c r="AZ16" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>146</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>45.8</v>
       </c>
       <c r="BA16" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>138</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>37.799999999999997</v>
       </c>
       <c r="BC16" s="1">
         <v>11</v>
@@ -3461,15 +5234,151 @@
         <v>5</v>
       </c>
       <c r="BF16" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="BG16" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BI16" s="1">
+        <v>11</v>
+      </c>
+      <c r="BJ16" s="1">
+        <v>12</v>
+      </c>
+      <c r="BK16" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL16" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>138</v>
-      </c>
-      <c r="BG16" s="1">
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BM16" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:59" x14ac:dyDescent="0.25">
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BO16" s="1">
+        <v>11</v>
+      </c>
+      <c r="BP16" s="1">
+        <v>12</v>
+      </c>
+      <c r="BQ16" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR16" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BS16" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="BU16" s="1">
+        <v>11</v>
+      </c>
+      <c r="BV16" s="1">
+        <v>12</v>
+      </c>
+      <c r="BW16" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX16" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="BY16" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="CA16" s="1">
+        <v>11</v>
+      </c>
+      <c r="CB16" s="1">
+        <v>12</v>
+      </c>
+      <c r="CC16" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD16" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="CE16" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="CG16" s="1">
+        <v>11</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>12</v>
+      </c>
+      <c r="CI16" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ16" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="CK16" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="CM16" s="1">
+        <v>11</v>
+      </c>
+      <c r="CN16" s="1">
+        <v>12</v>
+      </c>
+      <c r="CO16" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP16" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="CQ16" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="CS16" s="1">
+        <v>11</v>
+      </c>
+      <c r="CT16" s="1">
+        <v>12</v>
+      </c>
+      <c r="CU16" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV16" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="CW16" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="CY16"/>
+      <c r="CZ16"/>
+      <c r="DA16"/>
+      <c r="DB16"/>
+      <c r="DC16"/>
+      <c r="DD16"/>
+      <c r="DE16"/>
+      <c r="DF16"/>
+      <c r="DG16"/>
+      <c r="DH16"/>
+      <c r="DI16"/>
+      <c r="DJ16"/>
+      <c r="DK16"/>
+      <c r="DL16"/>
+      <c r="DM16"/>
+      <c r="DN16"/>
+      <c r="DO16"/>
+    </row>
+    <row r="17" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -3481,11 +5390,11 @@
       </c>
       <c r="D17" s="4">
         <f>get_abs_axle_loc!D17</f>
-        <v>199</v>
+        <v>98.8</v>
       </c>
       <c r="E17" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>191</v>
+        <v>90.8</v>
       </c>
       <c r="G17" s="1">
         <v>12</v>
@@ -3498,11 +5407,11 @@
       </c>
       <c r="J17" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>191</v>
+        <v>90.8</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="M17" s="1">
         <v>12</v>
@@ -3515,11 +5424,11 @@
       </c>
       <c r="P17" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="Q17" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="S17" s="1">
         <v>12</v>
@@ -3532,11 +5441,11 @@
       </c>
       <c r="V17" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="W17" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="Y17" s="1">
         <v>12</v>
@@ -3549,11 +5458,11 @@
       </c>
       <c r="AB17" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>176</v>
+        <v>75.8</v>
       </c>
       <c r="AC17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>167</v>
+        <v>66.8</v>
       </c>
       <c r="AE17" s="1">
         <v>12</v>
@@ -3565,12 +5474,12 @@
         <v>5</v>
       </c>
       <c r="AH17" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>167</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>66.8</v>
       </c>
       <c r="AI17" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>61.8</v>
       </c>
       <c r="AK17" s="1">
         <v>12</v>
@@ -3582,12 +5491,12 @@
         <v>5</v>
       </c>
       <c r="AN17" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>61.8</v>
       </c>
       <c r="AO17" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>156</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>55.8</v>
       </c>
       <c r="AQ17" s="1">
         <v>12</v>
@@ -3599,12 +5508,12 @@
         <v>5</v>
       </c>
       <c r="AT17" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>156</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>55.8</v>
       </c>
       <c r="AU17" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>50.8</v>
       </c>
       <c r="AW17" s="1">
         <v>12</v>
@@ -3616,12 +5525,12 @@
         <v>5</v>
       </c>
       <c r="AZ17" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>151</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>50.8</v>
       </c>
       <c r="BA17" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>143</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>42.8</v>
       </c>
       <c r="BC17" s="1">
         <v>12</v>
@@ -3633,15 +5542,151 @@
         <v>5</v>
       </c>
       <c r="BF17" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>42.8</v>
+      </c>
+      <c r="BG17" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BI17" s="1">
+        <v>12</v>
+      </c>
+      <c r="BJ17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BK17" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL17" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>143</v>
-      </c>
-      <c r="BG17" s="1">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BM17" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>135</v>
-      </c>
-    </row>
-    <row r="18" spans="1:59" x14ac:dyDescent="0.25">
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BO17" s="1">
+        <v>12</v>
+      </c>
+      <c r="BP17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BQ17" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR17" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BS17" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BU17" s="1">
+        <v>12</v>
+      </c>
+      <c r="BV17" s="1">
+        <v>13</v>
+      </c>
+      <c r="BW17" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX17" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="BY17" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="CA17" s="1">
+        <v>12</v>
+      </c>
+      <c r="CB17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CC17" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD17" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="CE17" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="CG17" s="1">
+        <v>12</v>
+      </c>
+      <c r="CH17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CI17" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ17" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="CK17" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="CM17" s="1">
+        <v>12</v>
+      </c>
+      <c r="CN17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CO17" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP17" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="CQ17" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="CS17" s="1">
+        <v>12</v>
+      </c>
+      <c r="CT17" s="1">
+        <v>13</v>
+      </c>
+      <c r="CU17" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV17" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="CW17" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="CY17"/>
+      <c r="CZ17"/>
+      <c r="DA17"/>
+      <c r="DB17"/>
+      <c r="DC17"/>
+      <c r="DD17"/>
+      <c r="DE17"/>
+      <c r="DF17"/>
+      <c r="DG17"/>
+      <c r="DH17"/>
+      <c r="DI17"/>
+      <c r="DJ17"/>
+      <c r="DK17"/>
+      <c r="DL17"/>
+      <c r="DM17"/>
+      <c r="DN17"/>
+      <c r="DO17"/>
+    </row>
+    <row r="18" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -3653,11 +5698,11 @@
       </c>
       <c r="D18" s="4">
         <f>get_abs_axle_loc!D18</f>
-        <v>204</v>
+        <v>103.8</v>
       </c>
       <c r="E18" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>196</v>
+        <v>95.8</v>
       </c>
       <c r="G18" s="1">
         <v>13</v>
@@ -3670,11 +5715,11 @@
       </c>
       <c r="J18" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>196</v>
+        <v>95.8</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>191</v>
+        <v>90.8</v>
       </c>
       <c r="M18" s="1">
         <v>13</v>
@@ -3687,11 +5732,11 @@
       </c>
       <c r="P18" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>191</v>
+        <v>90.8</v>
       </c>
       <c r="Q18" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="S18" s="1">
         <v>13</v>
@@ -3704,11 +5749,11 @@
       </c>
       <c r="V18" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="W18" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="Y18" s="1">
         <v>13</v>
@@ -3721,11 +5766,11 @@
       </c>
       <c r="AB18" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="AC18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>172</v>
+        <v>71.8</v>
       </c>
       <c r="AE18" s="1">
         <v>13</v>
@@ -3737,12 +5782,12 @@
         <v>5</v>
       </c>
       <c r="AH18" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>172</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>71.8</v>
       </c>
       <c r="AI18" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>167</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>66.8</v>
       </c>
       <c r="AK18" s="1">
         <v>13</v>
@@ -3754,12 +5799,12 @@
         <v>5</v>
       </c>
       <c r="AN18" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>167</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>66.8</v>
       </c>
       <c r="AO18" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>161</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>60.8</v>
       </c>
       <c r="AQ18" s="1">
         <v>13</v>
@@ -3771,12 +5816,12 @@
         <v>5</v>
       </c>
       <c r="AT18" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>161</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>60.8</v>
       </c>
       <c r="AU18" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>156</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>55.8</v>
       </c>
       <c r="AW18" s="1">
         <v>13</v>
@@ -3788,12 +5833,12 @@
         <v>5</v>
       </c>
       <c r="AZ18" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>156</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>55.8</v>
       </c>
       <c r="BA18" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>148</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>47.8</v>
       </c>
       <c r="BC18" s="1">
         <v>13</v>
@@ -3805,15 +5850,151 @@
         <v>5</v>
       </c>
       <c r="BF18" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>47.8</v>
+      </c>
+      <c r="BG18" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="BI18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BJ18" s="1">
+        <v>14</v>
+      </c>
+      <c r="BK18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL18" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>148</v>
-      </c>
-      <c r="BG18" s="1">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="BM18" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19" spans="1:59" x14ac:dyDescent="0.25">
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BO18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BP18" s="1">
+        <v>14</v>
+      </c>
+      <c r="BQ18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR18" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="BS18" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BU18" s="1">
+        <v>13</v>
+      </c>
+      <c r="BV18" s="1">
+        <v>14</v>
+      </c>
+      <c r="BW18" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX18" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="BY18" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CA18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CB18" s="1">
+        <v>14</v>
+      </c>
+      <c r="CC18" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD18" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CE18" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="CG18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CH18" s="1">
+        <v>14</v>
+      </c>
+      <c r="CI18" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ18" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="CK18" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="CM18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CN18" s="1">
+        <v>14</v>
+      </c>
+      <c r="CO18" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP18" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="CQ18" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="CS18" s="1">
+        <v>13</v>
+      </c>
+      <c r="CT18" s="1">
+        <v>14</v>
+      </c>
+      <c r="CU18" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV18" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="CW18" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="CY18"/>
+      <c r="CZ18"/>
+      <c r="DA18"/>
+      <c r="DB18"/>
+      <c r="DC18"/>
+      <c r="DD18"/>
+      <c r="DE18"/>
+      <c r="DF18"/>
+      <c r="DG18"/>
+      <c r="DH18"/>
+      <c r="DI18"/>
+      <c r="DJ18"/>
+      <c r="DK18"/>
+      <c r="DL18"/>
+      <c r="DM18"/>
+      <c r="DN18"/>
+      <c r="DO18"/>
+    </row>
+    <row r="19" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -3825,11 +6006,11 @@
       </c>
       <c r="D19" s="4">
         <f>get_abs_axle_loc!D19</f>
-        <v>213</v>
+        <v>112.8</v>
       </c>
       <c r="E19" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>205</v>
+        <v>104.8</v>
       </c>
       <c r="G19" s="1">
         <v>14</v>
@@ -3842,11 +6023,11 @@
       </c>
       <c r="J19" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>205</v>
+        <v>104.8</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>200</v>
+        <v>99.8</v>
       </c>
       <c r="M19" s="1">
         <v>14</v>
@@ -3859,11 +6040,11 @@
       </c>
       <c r="P19" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>200</v>
+        <v>99.8</v>
       </c>
       <c r="Q19" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>195</v>
+        <v>94.8</v>
       </c>
       <c r="S19" s="1">
         <v>14</v>
@@ -3876,11 +6057,11 @@
       </c>
       <c r="V19" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>195</v>
+        <v>94.8</v>
       </c>
       <c r="W19" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>190</v>
+        <v>89.8</v>
       </c>
       <c r="Y19" s="1">
         <v>14</v>
@@ -3893,11 +6074,11 @@
       </c>
       <c r="AB19" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>190</v>
+        <v>89.8</v>
       </c>
       <c r="AC19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>181</v>
+        <v>80.8</v>
       </c>
       <c r="AE19" s="1">
         <v>14</v>
@@ -3909,12 +6090,12 @@
         <v>9</v>
       </c>
       <c r="AH19" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>80.8</v>
       </c>
       <c r="AI19" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>75.8</v>
       </c>
       <c r="AK19" s="1">
         <v>14</v>
@@ -3926,12 +6107,12 @@
         <v>9</v>
       </c>
       <c r="AN19" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>75.8</v>
       </c>
       <c r="AO19" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>69.8</v>
       </c>
       <c r="AQ19" s="1">
         <v>14</v>
@@ -3943,12 +6124,12 @@
         <v>9</v>
       </c>
       <c r="AT19" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>69.8</v>
       </c>
       <c r="AU19" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>165</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>64.8</v>
       </c>
       <c r="AW19" s="1">
         <v>14</v>
@@ -3960,12 +6141,12 @@
         <v>9</v>
       </c>
       <c r="AZ19" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>165</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>64.8</v>
       </c>
       <c r="BA19" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>157</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>56.8</v>
       </c>
       <c r="BC19" s="1">
         <v>14</v>
@@ -3977,15 +6158,151 @@
         <v>9</v>
       </c>
       <c r="BF19" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>56.8</v>
+      </c>
+      <c r="BG19" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>48.8</v>
+      </c>
+      <c r="BI19" s="1">
+        <v>14</v>
+      </c>
+      <c r="BJ19" s="1">
+        <v>15</v>
+      </c>
+      <c r="BK19" s="1">
+        <v>9</v>
+      </c>
+      <c r="BL19" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>157</v>
-      </c>
-      <c r="BG19" s="1">
+        <v>48.8</v>
+      </c>
+      <c r="BM19" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:59" x14ac:dyDescent="0.25">
+        <v>43.8</v>
+      </c>
+      <c r="BO19" s="1">
+        <v>14</v>
+      </c>
+      <c r="BP19" s="1">
+        <v>15</v>
+      </c>
+      <c r="BQ19" s="1">
+        <v>9</v>
+      </c>
+      <c r="BR19" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>43.8</v>
+      </c>
+      <c r="BS19" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="BU19" s="1">
+        <v>14</v>
+      </c>
+      <c r="BV19" s="1">
+        <v>15</v>
+      </c>
+      <c r="BW19" s="1">
+        <v>9</v>
+      </c>
+      <c r="BX19" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="BY19" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="CA19" s="1">
+        <v>14</v>
+      </c>
+      <c r="CB19" s="1">
+        <v>15</v>
+      </c>
+      <c r="CC19" s="1">
+        <v>9</v>
+      </c>
+      <c r="CD19" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="CE19" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CG19" s="1">
+        <v>14</v>
+      </c>
+      <c r="CH19" s="1">
+        <v>15</v>
+      </c>
+      <c r="CI19" s="1">
+        <v>9</v>
+      </c>
+      <c r="CJ19" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CK19" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="CM19" s="1">
+        <v>14</v>
+      </c>
+      <c r="CN19" s="1">
+        <v>15</v>
+      </c>
+      <c r="CO19" s="1">
+        <v>9</v>
+      </c>
+      <c r="CP19" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="CQ19" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="CS19" s="1">
+        <v>14</v>
+      </c>
+      <c r="CT19" s="1">
+        <v>15</v>
+      </c>
+      <c r="CU19" s="1">
+        <v>9</v>
+      </c>
+      <c r="CV19" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="CW19" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="CY19"/>
+      <c r="CZ19"/>
+      <c r="DA19"/>
+      <c r="DB19"/>
+      <c r="DC19"/>
+      <c r="DD19"/>
+      <c r="DE19"/>
+      <c r="DF19"/>
+      <c r="DG19"/>
+      <c r="DH19"/>
+      <c r="DI19"/>
+      <c r="DJ19"/>
+      <c r="DK19"/>
+      <c r="DL19"/>
+      <c r="DM19"/>
+      <c r="DN19"/>
+      <c r="DO19"/>
+    </row>
+    <row r="20" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -3997,11 +6314,11 @@
       </c>
       <c r="D20" s="4">
         <f>get_abs_axle_loc!D20</f>
-        <v>218</v>
+        <v>117.8</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>210</v>
+        <v>109.8</v>
       </c>
       <c r="G20" s="1">
         <v>15</v>
@@ -4014,11 +6331,11 @@
       </c>
       <c r="J20" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>210</v>
+        <v>109.8</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>205</v>
+        <v>104.8</v>
       </c>
       <c r="M20" s="1">
         <v>15</v>
@@ -4031,11 +6348,11 @@
       </c>
       <c r="P20" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>205</v>
+        <v>104.8</v>
       </c>
       <c r="Q20" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>200</v>
+        <v>99.8</v>
       </c>
       <c r="S20" s="1">
         <v>15</v>
@@ -4048,11 +6365,11 @@
       </c>
       <c r="V20" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>200</v>
+        <v>99.8</v>
       </c>
       <c r="W20" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>195</v>
+        <v>94.8</v>
       </c>
       <c r="Y20" s="1">
         <v>15</v>
@@ -4065,11 +6382,11 @@
       </c>
       <c r="AB20" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>195</v>
+        <v>94.8</v>
       </c>
       <c r="AC20" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>186</v>
+        <v>85.8</v>
       </c>
       <c r="AE20" s="1">
         <v>15</v>
@@ -4081,12 +6398,12 @@
         <v>5</v>
       </c>
       <c r="AH20" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>186</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>85.8</v>
       </c>
       <c r="AI20" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>80.8</v>
       </c>
       <c r="AK20" s="1">
         <v>15</v>
@@ -4098,12 +6415,12 @@
         <v>5</v>
       </c>
       <c r="AN20" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>80.8</v>
       </c>
       <c r="AO20" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>74.8</v>
       </c>
       <c r="AQ20" s="1">
         <v>15</v>
@@ -4115,12 +6432,12 @@
         <v>5</v>
       </c>
       <c r="AT20" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>175</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>74.8</v>
       </c>
       <c r="AU20" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>69.8</v>
       </c>
       <c r="AW20" s="1">
         <v>15</v>
@@ -4132,12 +6449,12 @@
         <v>5</v>
       </c>
       <c r="AZ20" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>170</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>69.8</v>
       </c>
       <c r="BA20" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>162</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>61.8</v>
       </c>
       <c r="BC20" s="1">
         <v>15</v>
@@ -4149,15 +6466,151 @@
         <v>5</v>
       </c>
       <c r="BF20" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>61.8</v>
+      </c>
+      <c r="BG20" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>53.8</v>
+      </c>
+      <c r="BI20" s="1">
+        <v>15</v>
+      </c>
+      <c r="BJ20" s="1">
+        <v>16</v>
+      </c>
+      <c r="BK20" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL20" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>162</v>
-      </c>
-      <c r="BG20" s="1">
+        <v>53.8</v>
+      </c>
+      <c r="BM20" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>154</v>
-      </c>
-    </row>
-    <row r="21" spans="1:59" x14ac:dyDescent="0.25">
+        <v>48.8</v>
+      </c>
+      <c r="BO20" s="1">
+        <v>15</v>
+      </c>
+      <c r="BP20" s="1">
+        <v>16</v>
+      </c>
+      <c r="BQ20" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR20" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>48.8</v>
+      </c>
+      <c r="BS20" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>43.8</v>
+      </c>
+      <c r="BU20" s="1">
+        <v>15</v>
+      </c>
+      <c r="BV20" s="1">
+        <v>16</v>
+      </c>
+      <c r="BW20" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX20" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>43.8</v>
+      </c>
+      <c r="BY20" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="CA20" s="1">
+        <v>15</v>
+      </c>
+      <c r="CB20" s="1">
+        <v>16</v>
+      </c>
+      <c r="CC20" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD20" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="CE20" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="CG20" s="1">
+        <v>15</v>
+      </c>
+      <c r="CH20" s="1">
+        <v>16</v>
+      </c>
+      <c r="CI20" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ20" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="CK20" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CM20" s="1">
+        <v>15</v>
+      </c>
+      <c r="CN20" s="1">
+        <v>16</v>
+      </c>
+      <c r="CO20" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP20" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CQ20" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="CS20" s="1">
+        <v>15</v>
+      </c>
+      <c r="CT20" s="1">
+        <v>16</v>
+      </c>
+      <c r="CU20" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV20" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="CW20" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="CY20"/>
+      <c r="CZ20"/>
+      <c r="DA20"/>
+      <c r="DB20"/>
+      <c r="DC20"/>
+      <c r="DD20"/>
+      <c r="DE20"/>
+      <c r="DF20"/>
+      <c r="DG20"/>
+      <c r="DH20"/>
+      <c r="DI20"/>
+      <c r="DJ20"/>
+      <c r="DK20"/>
+      <c r="DL20"/>
+      <c r="DM20"/>
+      <c r="DN20"/>
+      <c r="DO20"/>
+    </row>
+    <row r="21" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -4169,11 +6622,11 @@
       </c>
       <c r="D21" s="4">
         <f>get_abs_axle_loc!D21</f>
-        <v>224</v>
+        <v>123.8</v>
       </c>
       <c r="E21" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>216</v>
+        <v>115.8</v>
       </c>
       <c r="G21" s="1">
         <v>16</v>
@@ -4186,11 +6639,11 @@
       </c>
       <c r="J21" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>216</v>
+        <v>115.8</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>211</v>
+        <v>110.8</v>
       </c>
       <c r="M21" s="1">
         <v>16</v>
@@ -4203,11 +6656,11 @@
       </c>
       <c r="P21" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>211</v>
+        <v>110.8</v>
       </c>
       <c r="Q21" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>206</v>
+        <v>105.8</v>
       </c>
       <c r="S21" s="1">
         <v>16</v>
@@ -4220,11 +6673,11 @@
       </c>
       <c r="V21" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>206</v>
+        <v>105.8</v>
       </c>
       <c r="W21" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>201</v>
+        <v>100.8</v>
       </c>
       <c r="Y21" s="1">
         <v>16</v>
@@ -4237,11 +6690,11 @@
       </c>
       <c r="AB21" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>201</v>
+        <v>100.8</v>
       </c>
       <c r="AC21" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>192</v>
+        <v>91.8</v>
       </c>
       <c r="AE21" s="1">
         <v>16</v>
@@ -4253,12 +6706,12 @@
         <v>6</v>
       </c>
       <c r="AH21" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>91.8</v>
       </c>
       <c r="AI21" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>187</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>86.8</v>
       </c>
       <c r="AK21" s="1">
         <v>16</v>
@@ -4270,12 +6723,12 @@
         <v>6</v>
       </c>
       <c r="AN21" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>187</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>86.8</v>
       </c>
       <c r="AO21" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>80.8</v>
       </c>
       <c r="AQ21" s="1">
         <v>16</v>
@@ -4287,12 +6740,12 @@
         <v>6</v>
       </c>
       <c r="AT21" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>80.8</v>
       </c>
       <c r="AU21" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>75.8</v>
       </c>
       <c r="AW21" s="1">
         <v>16</v>
@@ -4304,12 +6757,12 @@
         <v>6</v>
       </c>
       <c r="AZ21" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>176</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>75.8</v>
       </c>
       <c r="BA21" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>168</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>67.8</v>
       </c>
       <c r="BC21" s="1">
         <v>16</v>
@@ -4321,15 +6774,151 @@
         <v>6</v>
       </c>
       <c r="BF21" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>67.8</v>
+      </c>
+      <c r="BG21" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>59.8</v>
+      </c>
+      <c r="BI21" s="1">
+        <v>16</v>
+      </c>
+      <c r="BJ21" s="1">
+        <v>17</v>
+      </c>
+      <c r="BK21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BL21" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>168</v>
-      </c>
-      <c r="BG21" s="1">
+        <v>59.8</v>
+      </c>
+      <c r="BM21" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="22" spans="1:59" x14ac:dyDescent="0.25">
+        <v>54.8</v>
+      </c>
+      <c r="BO21" s="1">
+        <v>16</v>
+      </c>
+      <c r="BP21" s="1">
+        <v>17</v>
+      </c>
+      <c r="BQ21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BR21" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>54.8</v>
+      </c>
+      <c r="BS21" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>49.8</v>
+      </c>
+      <c r="BU21" s="1">
+        <v>16</v>
+      </c>
+      <c r="BV21" s="1">
+        <v>17</v>
+      </c>
+      <c r="BW21" s="1">
+        <v>6</v>
+      </c>
+      <c r="BX21" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>49.8</v>
+      </c>
+      <c r="BY21" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>44.8</v>
+      </c>
+      <c r="CA21" s="1">
+        <v>16</v>
+      </c>
+      <c r="CB21" s="1">
+        <v>17</v>
+      </c>
+      <c r="CC21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CD21" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>44.8</v>
+      </c>
+      <c r="CE21" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="CG21" s="1">
+        <v>16</v>
+      </c>
+      <c r="CH21" s="1">
+        <v>17</v>
+      </c>
+      <c r="CI21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CJ21" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="CK21" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="CM21" s="1">
+        <v>16</v>
+      </c>
+      <c r="CN21" s="1">
+        <v>17</v>
+      </c>
+      <c r="CO21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CP21" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="CQ21" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CS21" s="1">
+        <v>16</v>
+      </c>
+      <c r="CT21" s="1">
+        <v>17</v>
+      </c>
+      <c r="CU21" s="1">
+        <v>6</v>
+      </c>
+      <c r="CV21" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="CW21" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="CY21"/>
+      <c r="CZ21"/>
+      <c r="DA21"/>
+      <c r="DB21"/>
+      <c r="DC21"/>
+      <c r="DD21"/>
+      <c r="DE21"/>
+      <c r="DF21"/>
+      <c r="DG21"/>
+      <c r="DH21"/>
+      <c r="DI21"/>
+      <c r="DJ21"/>
+      <c r="DK21"/>
+      <c r="DL21"/>
+      <c r="DM21"/>
+      <c r="DN21"/>
+      <c r="DO21"/>
+    </row>
+    <row r="22" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -4341,11 +6930,11 @@
       </c>
       <c r="D22" s="4">
         <f>get_abs_axle_loc!D22</f>
-        <v>229</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="E22" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>221</v>
+        <v>120.80000000000001</v>
       </c>
       <c r="G22" s="1">
         <v>17</v>
@@ -4358,11 +6947,11 @@
       </c>
       <c r="J22" s="1">
         <f t="shared" ca="1" si="1"/>
-        <v>221</v>
+        <v>120.80000000000001</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" ca="1" si="2"/>
-        <v>216</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="M22" s="1">
         <v>17</v>
@@ -4375,11 +6964,11 @@
       </c>
       <c r="P22" s="1">
         <f t="shared" ca="1" si="3"/>
-        <v>216</v>
+        <v>115.80000000000001</v>
       </c>
       <c r="Q22" s="1">
         <f t="shared" ca="1" si="4"/>
-        <v>211</v>
+        <v>110.80000000000001</v>
       </c>
       <c r="S22" s="1">
         <v>17</v>
@@ -4392,11 +6981,11 @@
       </c>
       <c r="V22" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>211</v>
+        <v>110.80000000000001</v>
       </c>
       <c r="W22" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>206</v>
+        <v>105.80000000000001</v>
       </c>
       <c r="Y22" s="1">
         <v>17</v>
@@ -4409,11 +6998,11 @@
       </c>
       <c r="AB22" s="1">
         <f t="shared" ca="1" si="7"/>
-        <v>206</v>
+        <v>105.80000000000001</v>
       </c>
       <c r="AC22" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>197</v>
+        <v>96.800000000000011</v>
       </c>
       <c r="AE22" s="1">
         <v>17</v>
@@ -4425,12 +7014,12 @@
         <v>5</v>
       </c>
       <c r="AH22" s="1">
-        <f t="shared" ca="1" si="9"/>
-        <v>197</v>
+        <f t="shared" ca="1" si="31"/>
+        <v>96.800000000000011</v>
       </c>
       <c r="AI22" s="1">
-        <f t="shared" ca="1" si="10"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="32"/>
+        <v>91.800000000000011</v>
       </c>
       <c r="AK22" s="1">
         <v>17</v>
@@ -4442,12 +7031,12 @@
         <v>5</v>
       </c>
       <c r="AN22" s="1">
-        <f t="shared" ca="1" si="11"/>
-        <v>192</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>91.800000000000011</v>
       </c>
       <c r="AO22" s="1">
-        <f t="shared" ca="1" si="12"/>
-        <v>186</v>
+        <f t="shared" ca="1" si="10"/>
+        <v>85.800000000000011</v>
       </c>
       <c r="AQ22" s="1">
         <v>17</v>
@@ -4459,12 +7048,12 @@
         <v>5</v>
       </c>
       <c r="AT22" s="1">
-        <f t="shared" ca="1" si="13"/>
-        <v>186</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>85.800000000000011</v>
       </c>
       <c r="AU22" s="1">
-        <f t="shared" ca="1" si="14"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="12"/>
+        <v>80.800000000000011</v>
       </c>
       <c r="AW22" s="1">
         <v>17</v>
@@ -4476,12 +7065,12 @@
         <v>5</v>
       </c>
       <c r="AZ22" s="1">
-        <f t="shared" ca="1" si="15"/>
-        <v>181</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>80.800000000000011</v>
       </c>
       <c r="BA22" s="1">
-        <f t="shared" ca="1" si="16"/>
-        <v>173</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>72.800000000000011</v>
       </c>
       <c r="BC22" s="1">
         <v>17</v>
@@ -4493,23 +7082,1595 @@
         <v>5</v>
       </c>
       <c r="BF22" s="1">
+        <f t="shared" ca="1" si="15"/>
+        <v>72.800000000000011</v>
+      </c>
+      <c r="BG22" s="1">
+        <f t="shared" ca="1" si="16"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="BI22" s="1">
+        <v>17</v>
+      </c>
+      <c r="BJ22" s="1">
+        <v>18</v>
+      </c>
+      <c r="BK22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BL22" s="1">
         <f t="shared" ca="1" si="17"/>
-        <v>173</v>
-      </c>
-      <c r="BG22" s="1">
+        <v>64.800000000000011</v>
+      </c>
+      <c r="BM22" s="1">
         <f t="shared" ca="1" si="18"/>
-        <v>165</v>
-      </c>
-    </row>
-    <row r="24" spans="1:59" x14ac:dyDescent="0.25">
+        <v>59.800000000000011</v>
+      </c>
+      <c r="BO22" s="1">
+        <v>17</v>
+      </c>
+      <c r="BP22" s="1">
+        <v>18</v>
+      </c>
+      <c r="BQ22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BR22" s="1">
+        <f t="shared" ca="1" si="19"/>
+        <v>59.800000000000011</v>
+      </c>
+      <c r="BS22" s="1">
+        <f t="shared" ca="1" si="20"/>
+        <v>54.800000000000011</v>
+      </c>
+      <c r="BU22" s="1">
+        <v>17</v>
+      </c>
+      <c r="BV22" s="1">
+        <v>18</v>
+      </c>
+      <c r="BW22" s="1">
+        <v>5</v>
+      </c>
+      <c r="BX22" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>54.800000000000011</v>
+      </c>
+      <c r="BY22" s="1">
+        <f t="shared" ca="1" si="22"/>
+        <v>49.800000000000011</v>
+      </c>
+      <c r="CA22" s="1">
+        <v>17</v>
+      </c>
+      <c r="CB22" s="1">
+        <v>18</v>
+      </c>
+      <c r="CC22" s="1">
+        <v>5</v>
+      </c>
+      <c r="CD22" s="1">
+        <f t="shared" ca="1" si="23"/>
+        <v>49.800000000000011</v>
+      </c>
+      <c r="CE22" s="1">
+        <f t="shared" ca="1" si="24"/>
+        <v>40.800000000000011</v>
+      </c>
+      <c r="CG22" s="1">
+        <v>17</v>
+      </c>
+      <c r="CH22" s="1">
+        <v>18</v>
+      </c>
+      <c r="CI22" s="1">
+        <v>5</v>
+      </c>
+      <c r="CJ22" s="1">
+        <f t="shared" ca="1" si="25"/>
+        <v>40.800000000000011</v>
+      </c>
+      <c r="CK22" s="1">
+        <f t="shared" ca="1" si="26"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="CM22" s="1">
+        <v>17</v>
+      </c>
+      <c r="CN22" s="1">
+        <v>18</v>
+      </c>
+      <c r="CO22" s="1">
+        <v>5</v>
+      </c>
+      <c r="CP22" s="1">
+        <f t="shared" ca="1" si="27"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="CQ22" s="1">
+        <f t="shared" ca="1" si="28"/>
+        <v>29.800000000000011</v>
+      </c>
+      <c r="CS22" s="1">
+        <v>17</v>
+      </c>
+      <c r="CT22" s="1">
+        <v>18</v>
+      </c>
+      <c r="CU22" s="1">
+        <v>5</v>
+      </c>
+      <c r="CV22" s="1">
+        <f t="shared" ca="1" si="29"/>
+        <v>29.800000000000011</v>
+      </c>
+      <c r="CW22" s="1">
+        <f t="shared" ca="1" si="30"/>
+        <v>24.800000000000011</v>
+      </c>
+      <c r="CY22"/>
+      <c r="CZ22"/>
+      <c r="DA22"/>
+      <c r="DB22"/>
+      <c r="DC22"/>
+      <c r="DD22"/>
+      <c r="DE22"/>
+      <c r="DF22"/>
+      <c r="DG22"/>
+      <c r="DH22"/>
+      <c r="DI22"/>
+      <c r="DJ22"/>
+      <c r="DK22"/>
+      <c r="DL22"/>
+      <c r="DM22"/>
+      <c r="DN22"/>
+      <c r="DO22"/>
+    </row>
+    <row r="24" spans="1:119" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="28" spans="1:59" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="str">
-        <f>CONCATENATE(F32)</f>
-        <v/>
+    <row r="28" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>1</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>4</v>
+      </c>
+      <c r="G28" s="1">
+        <v>5</v>
+      </c>
+      <c r="H28" s="1">
+        <v>6</v>
+      </c>
+      <c r="I28" s="1">
+        <v>7</v>
+      </c>
+      <c r="J28" s="1">
+        <v>8</v>
+      </c>
+      <c r="K28" s="1">
+        <v>9</v>
+      </c>
+      <c r="L28" s="1">
+        <v>10</v>
+      </c>
+      <c r="M28" s="1">
+        <v>11</v>
+      </c>
+      <c r="N28" s="1">
+        <v>12</v>
+      </c>
+      <c r="O28" s="1">
+        <v>13</v>
+      </c>
+      <c r="P28" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>15</v>
+      </c>
+      <c r="R28" s="1">
+        <v>16</v>
+      </c>
+      <c r="S28" s="1">
+        <v>17</v>
+      </c>
+      <c r="T28" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="B29" s="1">
+        <v>1</v>
+      </c>
+      <c r="C29" s="1">
+        <f>get_abs_axle_loc!D5</f>
+        <v>24.8</v>
+      </c>
+      <c r="D29" s="1">
+        <f ca="1">E5</f>
+        <v>16.8</v>
+      </c>
+      <c r="E29" s="1">
+        <f ca="1">K5</f>
+        <v>11.8</v>
+      </c>
+      <c r="F29" s="1">
+        <f ca="1">Q5</f>
+        <v>6.8000000000000007</v>
+      </c>
+      <c r="G29" s="1">
+        <f ca="1">W5</f>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="H29" s="1">
+        <f ca="1">AC5</f>
+        <v>-7.1999999999999993</v>
+      </c>
+      <c r="I29" s="1">
+        <f ca="1">AI5</f>
+        <v>-12.2</v>
+      </c>
+      <c r="J29" s="1">
+        <f ca="1">AO5</f>
+        <v>-18.2</v>
+      </c>
+      <c r="K29" s="1">
+        <f ca="1">AU5</f>
+        <v>-23.2</v>
+      </c>
+      <c r="L29" s="1">
+        <f ca="1">BA5</f>
+        <v>-31.2</v>
+      </c>
+      <c r="M29" s="1">
+        <f ca="1">BG5</f>
+        <v>-39.200000000000003</v>
+      </c>
+      <c r="N29" s="1">
+        <f ca="1">BM5</f>
+        <v>-44.2</v>
+      </c>
+      <c r="O29" s="1">
+        <f ca="1">BS5</f>
+        <v>-49.2</v>
+      </c>
+      <c r="P29" s="1">
+        <f ca="1">BY5</f>
+        <v>-54.2</v>
+      </c>
+      <c r="Q29" s="1">
+        <f ca="1">CE5</f>
+        <v>-63.2</v>
+      </c>
+      <c r="R29" s="1">
+        <f ca="1">CK5</f>
+        <v>-68.2</v>
+      </c>
+      <c r="S29" s="1">
+        <f ca="1">CQ5</f>
+        <v>-74.2</v>
+      </c>
+      <c r="T29" s="1">
+        <f ca="1">CW5</f>
+        <v>-79.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1">
+        <f>get_abs_axle_loc!D6</f>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" ref="D30:D46" ca="1" si="33">E6</f>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" ref="E30:E46" ca="1" si="34">K6</f>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" ref="F30:F46" ca="1" si="35">Q6</f>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" ref="G30:G46" ca="1" si="36">W6</f>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" ref="H30:H46" ca="1" si="37">AC6</f>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" ref="I30:I46" ca="1" si="38">AI6</f>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" ref="J30:J46" ca="1" si="39">AO6</f>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" ref="K30:K46" ca="1" si="40">AU6</f>
+        <v>-15.200000000000003</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" ref="L30:L46" ca="1" si="41">BA6</f>
+        <v>-23.200000000000003</v>
+      </c>
+      <c r="M30" s="1">
+        <f t="shared" ref="M30:M46" ca="1" si="42">BG6</f>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="N30" s="1">
+        <f t="shared" ref="N30:N46" ca="1" si="43">BM6</f>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="O30" s="1">
+        <f t="shared" ref="O30:O46" ca="1" si="44">BS6</f>
+        <v>-41.2</v>
+      </c>
+      <c r="P30" s="1">
+        <f t="shared" ref="P30:P46" ca="1" si="45">BY6</f>
+        <v>-46.2</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" ref="Q30:Q46" ca="1" si="46">CE6</f>
+        <v>-55.2</v>
+      </c>
+      <c r="R30" s="1">
+        <f t="shared" ref="R30:R46" ca="1" si="47">CK6</f>
+        <v>-60.2</v>
+      </c>
+      <c r="S30" s="1">
+        <f t="shared" ref="S30:S46" ca="1" si="48">CQ6</f>
+        <v>-66.2</v>
+      </c>
+      <c r="T30" s="1">
+        <f t="shared" ref="T30:T46" ca="1" si="49">CW6</f>
+        <v>-71.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="B31" s="1">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1">
+        <f>get_abs_axle_loc!D7</f>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>-18.200000000000003</v>
+      </c>
+      <c r="M31" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="N31" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="O31" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="P31" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-41.2</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-50.2</v>
+      </c>
+      <c r="R31" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-55.2</v>
+      </c>
+      <c r="S31" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-61.2</v>
+      </c>
+      <c r="T31" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-66.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:119" x14ac:dyDescent="0.25">
+      <c r="B32" s="1">
+        <v>4</v>
+      </c>
+      <c r="C32" s="1">
+        <f>get_abs_axle_loc!D8</f>
+        <v>42.8</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>-13.200000000000003</v>
+      </c>
+      <c r="M32" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="N32" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="O32" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="P32" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-45.2</v>
+      </c>
+      <c r="R32" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-50.2</v>
+      </c>
+      <c r="S32" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-56.2</v>
+      </c>
+      <c r="T32" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-61.2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B33" s="1">
+        <v>5</v>
+      </c>
+      <c r="C33" s="1">
+        <f>get_abs_axle_loc!D9</f>
+        <v>47.8</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>-8.2000000000000028</v>
+      </c>
+      <c r="M33" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>-16.200000000000003</v>
+      </c>
+      <c r="N33" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-21.200000000000003</v>
+      </c>
+      <c r="O33" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="P33" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-40.200000000000003</v>
+      </c>
+      <c r="R33" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-45.2</v>
+      </c>
+      <c r="S33" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-51.2</v>
+      </c>
+      <c r="T33" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-56.2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B34" s="1">
+        <v>6</v>
+      </c>
+      <c r="C34" s="1">
+        <f>get_abs_axle_loc!D10</f>
+        <v>56.8</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>48.8</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>43.8</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="M34" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="N34" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="O34" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="P34" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-22.200000000000003</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="R34" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-36.200000000000003</v>
+      </c>
+      <c r="S34" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-42.2</v>
+      </c>
+      <c r="T34" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-47.2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B35" s="1">
+        <v>7</v>
+      </c>
+      <c r="C35" s="1">
+        <f>get_abs_axle_loc!D11</f>
+        <v>61.8</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>53.8</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>48.8</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>43.8</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="M35" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>-2.2000000000000028</v>
+      </c>
+      <c r="N35" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="O35" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="P35" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-17.200000000000003</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="R35" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="S35" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="T35" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-42.2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B36" s="1">
+        <v>8</v>
+      </c>
+      <c r="C36" s="1">
+        <f>get_abs_axle_loc!D12</f>
+        <v>67.8</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>59.8</v>
+      </c>
+      <c r="E36" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>54.8</v>
+      </c>
+      <c r="F36" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>49.8</v>
+      </c>
+      <c r="G36" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>44.8</v>
+      </c>
+      <c r="H36" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="I36" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="J36" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="K36" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="L36" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="M36" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="N36" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="O36" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="P36" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-11.200000000000003</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="R36" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-25.200000000000003</v>
+      </c>
+      <c r="S36" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-31.200000000000003</v>
+      </c>
+      <c r="T36" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-36.200000000000003</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B37" s="1">
+        <v>9</v>
+      </c>
+      <c r="C37" s="1">
+        <f>get_abs_axle_loc!D13</f>
+        <v>72.8</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>64.8</v>
+      </c>
+      <c r="E37" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>59.8</v>
+      </c>
+      <c r="F37" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>54.8</v>
+      </c>
+      <c r="G37" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>49.8</v>
+      </c>
+      <c r="H37" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="I37" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="J37" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="K37" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="L37" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="M37" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>8.7999999999999972</v>
+      </c>
+      <c r="N37" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>3.7999999999999972</v>
+      </c>
+      <c r="O37" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>-1.2000000000000028</v>
+      </c>
+      <c r="P37" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>-6.2000000000000028</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-15.200000000000003</v>
+      </c>
+      <c r="R37" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-20.200000000000003</v>
+      </c>
+      <c r="S37" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-26.200000000000003</v>
+      </c>
+      <c r="T37" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-31.200000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B38" s="1">
+        <v>10</v>
+      </c>
+      <c r="C38" s="1">
+        <f>get_abs_axle_loc!D14</f>
+        <v>80.8</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>72.8</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>67.8</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>62.8</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>57.8</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>48.8</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>43.8</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="M38" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>16.799999999999997</v>
+      </c>
+      <c r="N38" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>11.799999999999997</v>
+      </c>
+      <c r="O38" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>6.7999999999999972</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>-7.2000000000000028</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-18.200000000000003</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-23.200000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>11</v>
+      </c>
+      <c r="C39" s="1">
+        <f>get_abs_axle_loc!D15</f>
+        <v>88.8</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>80.8</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>75.8</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>70.8</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>65.8</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>56.8</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>51.8</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>45.8</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>32.799999999999997</v>
+      </c>
+      <c r="M39" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="N39" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="O39" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="P39" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="R39" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>-4.2000000000000028</v>
+      </c>
+      <c r="S39" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-10.200000000000003</v>
+      </c>
+      <c r="T39" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-15.200000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B40" s="1">
+        <v>12</v>
+      </c>
+      <c r="C40" s="1">
+        <f>get_abs_axle_loc!D16</f>
+        <v>93.8</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>85.8</v>
+      </c>
+      <c r="E40" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>80.8</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>75.8</v>
+      </c>
+      <c r="G40" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>70.8</v>
+      </c>
+      <c r="H40" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>61.8</v>
+      </c>
+      <c r="I40" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>56.8</v>
+      </c>
+      <c r="J40" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>50.8</v>
+      </c>
+      <c r="K40" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>45.8</v>
+      </c>
+      <c r="L40" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>37.799999999999997</v>
+      </c>
+      <c r="M40" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="N40" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="O40" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="P40" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>14.799999999999997</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="R40" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>0.79999999999999716</v>
+      </c>
+      <c r="S40" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-5.2000000000000028</v>
+      </c>
+      <c r="T40" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-10.200000000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>13</v>
+      </c>
+      <c r="C41" s="1">
+        <f>get_abs_axle_loc!D17</f>
+        <v>98.8</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>90.8</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>85.8</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>80.8</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>75.8</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>66.8</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>61.8</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>55.8</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>50.8</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>42.8</v>
+      </c>
+      <c r="M41" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="N41" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="O41" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="P41" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="R41" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>5.7999999999999972</v>
+      </c>
+      <c r="S41" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>-0.20000000000000284</v>
+      </c>
+      <c r="T41" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-5.2000000000000028</v>
+      </c>
+    </row>
+    <row r="42" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B42" s="1">
+        <v>14</v>
+      </c>
+      <c r="C42" s="1">
+        <f>get_abs_axle_loc!D18</f>
+        <v>103.8</v>
+      </c>
+      <c r="D42" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>95.8</v>
+      </c>
+      <c r="E42" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>90.8</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>85.8</v>
+      </c>
+      <c r="G42" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>80.8</v>
+      </c>
+      <c r="H42" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>71.8</v>
+      </c>
+      <c r="I42" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>66.8</v>
+      </c>
+      <c r="J42" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>60.8</v>
+      </c>
+      <c r="K42" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>55.8</v>
+      </c>
+      <c r="L42" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>47.8</v>
+      </c>
+      <c r="M42" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>39.799999999999997</v>
+      </c>
+      <c r="N42" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>34.799999999999997</v>
+      </c>
+      <c r="O42" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="P42" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>15.799999999999997</v>
+      </c>
+      <c r="R42" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>10.799999999999997</v>
+      </c>
+      <c r="S42" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="T42" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>-0.20000000000000284</v>
+      </c>
+    </row>
+    <row r="43" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B43" s="1">
+        <v>15</v>
+      </c>
+      <c r="C43" s="1">
+        <f>get_abs_axle_loc!D19</f>
+        <v>112.8</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>104.8</v>
+      </c>
+      <c r="E43" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>99.8</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>94.8</v>
+      </c>
+      <c r="G43" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>89.8</v>
+      </c>
+      <c r="H43" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>80.8</v>
+      </c>
+      <c r="I43" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>75.8</v>
+      </c>
+      <c r="J43" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>69.8</v>
+      </c>
+      <c r="K43" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>64.8</v>
+      </c>
+      <c r="L43" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>56.8</v>
+      </c>
+      <c r="M43" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>48.8</v>
+      </c>
+      <c r="N43" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>43.8</v>
+      </c>
+      <c r="O43" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="P43" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>33.799999999999997</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="R43" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>19.799999999999997</v>
+      </c>
+      <c r="S43" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>13.799999999999997</v>
+      </c>
+      <c r="T43" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>8.7999999999999972</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B44" s="1">
+        <v>16</v>
+      </c>
+      <c r="C44" s="1">
+        <f>get_abs_axle_loc!D20</f>
+        <v>117.8</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>109.8</v>
+      </c>
+      <c r="E44" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>104.8</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>99.8</v>
+      </c>
+      <c r="G44" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>94.8</v>
+      </c>
+      <c r="H44" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>85.8</v>
+      </c>
+      <c r="I44" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>80.8</v>
+      </c>
+      <c r="J44" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>74.8</v>
+      </c>
+      <c r="K44" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>69.8</v>
+      </c>
+      <c r="L44" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>61.8</v>
+      </c>
+      <c r="M44" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>53.8</v>
+      </c>
+      <c r="N44" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>48.8</v>
+      </c>
+      <c r="O44" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>43.8</v>
+      </c>
+      <c r="P44" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>38.799999999999997</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>29.799999999999997</v>
+      </c>
+      <c r="R44" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="S44" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>18.799999999999997</v>
+      </c>
+      <c r="T44" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>13.799999999999997</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B45" s="1">
+        <v>17</v>
+      </c>
+      <c r="C45" s="1">
+        <f>get_abs_axle_loc!D21</f>
+        <v>123.8</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>115.8</v>
+      </c>
+      <c r="E45" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>110.8</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>105.8</v>
+      </c>
+      <c r="G45" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>100.8</v>
+      </c>
+      <c r="H45" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>91.8</v>
+      </c>
+      <c r="I45" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>86.8</v>
+      </c>
+      <c r="J45" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>80.8</v>
+      </c>
+      <c r="K45" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>75.8</v>
+      </c>
+      <c r="L45" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>67.8</v>
+      </c>
+      <c r="M45" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>59.8</v>
+      </c>
+      <c r="N45" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>54.8</v>
+      </c>
+      <c r="O45" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>49.8</v>
+      </c>
+      <c r="P45" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>44.8</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>35.799999999999997</v>
+      </c>
+      <c r="R45" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>30.799999999999997</v>
+      </c>
+      <c r="S45" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>24.799999999999997</v>
+      </c>
+      <c r="T45" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>19.799999999999997</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B46" s="1">
+        <v>18</v>
+      </c>
+      <c r="C46" s="1">
+        <f>get_abs_axle_loc!D22</f>
+        <v>128.80000000000001</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" ca="1" si="33"/>
+        <v>120.80000000000001</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" ca="1" si="34"/>
+        <v>115.80000000000001</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" ca="1" si="35"/>
+        <v>110.80000000000001</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" ca="1" si="36"/>
+        <v>105.80000000000001</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" ca="1" si="37"/>
+        <v>96.800000000000011</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" ca="1" si="38"/>
+        <v>91.800000000000011</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" ca="1" si="39"/>
+        <v>85.800000000000011</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" ca="1" si="40"/>
+        <v>80.800000000000011</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" ca="1" si="41"/>
+        <v>72.800000000000011</v>
+      </c>
+      <c r="M46" s="1">
+        <f t="shared" ca="1" si="42"/>
+        <v>64.800000000000011</v>
+      </c>
+      <c r="N46" s="1">
+        <f t="shared" ca="1" si="43"/>
+        <v>59.800000000000011</v>
+      </c>
+      <c r="O46" s="1">
+        <f t="shared" ca="1" si="44"/>
+        <v>54.800000000000011</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ca="1" si="45"/>
+        <v>49.800000000000011</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" ca="1" si="46"/>
+        <v>40.800000000000011</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" ca="1" si="47"/>
+        <v>35.800000000000011</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" ca="1" si="48"/>
+        <v>29.800000000000011</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" ca="1" si="49"/>
+        <v>24.800000000000011</v>
       </c>
     </row>
   </sheetData>
@@ -4519,19 +8680,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:T40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="1" customWidth="1"/>
     <col min="4" max="12" width="9.140625" style="1"/>
-    <col min="13" max="13" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -4549,14 +8710,14 @@
       </c>
       <c r="C2" s="3">
         <f>input!C3</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
       <c r="L2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="M2" s="3">
         <f>input!C3</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
@@ -4572,7 +8733,7 @@
       </c>
       <c r="M3" s="3">
         <f>input!C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
@@ -4581,14 +8742,14 @@
       </c>
       <c r="C4" s="3">
         <f>input!C5</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="M4" s="3">
         <f>input!C7</f>
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
@@ -4596,14 +8757,18 @@
         <v>58</v>
       </c>
       <c r="C5" s="20">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="M5" s="20">
-        <v>10</v>
-      </c>
+        <f>C5</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O6" s="23"/>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -4669,16 +8834,16 @@
         <v>40</v>
       </c>
       <c r="C8" s="6">
-        <f ca="1">move_alxe_loc!BA5</f>
-        <v>69</v>
+        <f ca="1">INDEX(move_alxe_loc!C29:T29,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-39.200000000000003</v>
       </c>
       <c r="D8" s="5">
         <f t="shared" ref="D8:D25" ca="1" si="0">IF(AND(C8&gt;=$C$3, C8&lt;=$C$4), B8, 0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="E8" s="5">
         <f t="shared" ref="E8:E25" ca="1" si="1">IF(AND(C8&gt;=$C$3, C8&lt;=$C$2),B8,0)</f>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="F8" s="5">
         <f t="shared" ref="F8:F25" ca="1" si="2">IF(AND(C8&gt;=$C$2, C8&lt;=$C$4), B8, 0)</f>
@@ -4686,11 +8851,11 @@
       </c>
       <c r="G8" s="5">
         <f t="shared" ref="G8:G25" ca="1" si="3">D8*C8</f>
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" ref="H8:H25" ca="1" si="4">E8*C8</f>
-        <v>2760</v>
+        <v>0</v>
       </c>
       <c r="I8" s="5">
         <f t="shared" ref="I8:I25" ca="1" si="5">F8*C8</f>
@@ -4704,7 +8869,7 @@
       </c>
       <c r="M8" s="6">
         <f ca="1">C8</f>
-        <v>69</v>
+        <v>-39.200000000000003</v>
       </c>
       <c r="N8" s="5">
         <f ca="1">IF(AND(M8&gt;=$M$3, M8&lt;=$M$4), L8, 0)</f>
@@ -4739,16 +8904,16 @@
         <v>80</v>
       </c>
       <c r="C9" s="6">
-        <f ca="1">move_alxe_loc!BA6</f>
-        <v>77</v>
+        <f ca="1">INDEX(move_alxe_loc!C30:T30,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-31.200000000000003</v>
       </c>
       <c r="D9" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E9" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F9" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4756,11 +8921,11 @@
       </c>
       <c r="G9" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6160</v>
+        <v>0</v>
       </c>
       <c r="I9" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4774,7 +8939,7 @@
       </c>
       <c r="M9" s="6">
         <f t="shared" ref="M9:M25" ca="1" si="6">C9</f>
-        <v>77</v>
+        <v>-31.200000000000003</v>
       </c>
       <c r="N9" s="5">
         <f t="shared" ref="N9:N25" ca="1" si="7">IF(AND(M9&gt;=$M$3, M9&lt;=$M$4), L9, 0)</f>
@@ -4789,15 +8954,15 @@
         <v>0</v>
       </c>
       <c r="Q9" s="5">
-        <f t="shared" ref="Q8:Q25" ca="1" si="10">N9*M9</f>
+        <f t="shared" ref="Q9:Q25" ca="1" si="10">N9*M9</f>
         <v>0</v>
       </c>
       <c r="R9" s="5">
-        <f t="shared" ref="R8:R25" ca="1" si="11">O9*M9</f>
+        <f t="shared" ref="R9:R25" ca="1" si="11">O9*M9</f>
         <v>0</v>
       </c>
       <c r="S9" s="5">
-        <f t="shared" ref="S8:S25" ca="1" si="12">P9*M9</f>
+        <f t="shared" ref="S9:S25" ca="1" si="12">P9*M9</f>
         <v>0</v>
       </c>
     </row>
@@ -4809,16 +8974,16 @@
         <v>80</v>
       </c>
       <c r="C10" s="6">
-        <f ca="1">move_alxe_loc!BA7</f>
-        <v>82</v>
+        <f ca="1">INDEX(move_alxe_loc!C31:T31,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-26.200000000000003</v>
       </c>
       <c r="D10" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E10" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F10" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4826,11 +8991,11 @@
       </c>
       <c r="G10" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6560</v>
+        <v>0</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6560</v>
+        <v>0</v>
       </c>
       <c r="I10" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4844,7 +9009,7 @@
       </c>
       <c r="M10" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>82</v>
+        <v>-26.200000000000003</v>
       </c>
       <c r="N10" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -4879,16 +9044,16 @@
         <v>80</v>
       </c>
       <c r="C11" s="6">
-        <f ca="1">move_alxe_loc!BA8</f>
-        <v>87</v>
+        <f ca="1">INDEX(move_alxe_loc!C32:T32,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-21.200000000000003</v>
       </c>
       <c r="D11" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E11" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F11" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4896,11 +9061,11 @@
       </c>
       <c r="G11" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>6960</v>
+        <v>0</v>
       </c>
       <c r="H11" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6960</v>
+        <v>0</v>
       </c>
       <c r="I11" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4914,7 +9079,7 @@
       </c>
       <c r="M11" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>87</v>
+        <v>-21.200000000000003</v>
       </c>
       <c r="N11" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -4949,16 +9114,16 @@
         <v>80</v>
       </c>
       <c r="C12" s="6">
-        <f ca="1">move_alxe_loc!BA9</f>
-        <v>92</v>
+        <f ca="1">INDEX(move_alxe_loc!C33:T33,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-16.200000000000003</v>
       </c>
       <c r="D12" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="E12" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F12" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -4966,11 +9131,11 @@
       </c>
       <c r="G12" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>7360</v>
+        <v>0</v>
       </c>
       <c r="H12" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>7360</v>
+        <v>0</v>
       </c>
       <c r="I12" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -4984,7 +9149,7 @@
       </c>
       <c r="M12" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>92</v>
+        <v>-16.200000000000003</v>
       </c>
       <c r="N12" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5019,8 +9184,8 @@
         <v>52</v>
       </c>
       <c r="C13" s="6">
-        <f ca="1">move_alxe_loc!BA10</f>
-        <v>101</v>
+        <f ca="1">INDEX(move_alxe_loc!C34:T34,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-7.2000000000000028</v>
       </c>
       <c r="D13" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5028,7 +9193,7 @@
       </c>
       <c r="E13" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F13" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5040,7 +9205,7 @@
       </c>
       <c r="H13" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="I13" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5052,17 +9217,17 @@
       <c r="L13" s="5">
         <v>52</v>
       </c>
-      <c r="M13" s="6">
+      <c r="M13" s="24">
         <f t="shared" ca="1" si="6"/>
-        <v>101</v>
+        <v>-7.2000000000000028</v>
       </c>
       <c r="N13" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O13" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P13" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5070,11 +9235,11 @@
       </c>
       <c r="Q13" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="R13" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>5252</v>
+        <v>0</v>
       </c>
       <c r="S13" s="5">
         <f t="shared" ca="1" si="12"/>
@@ -5089,8 +9254,8 @@
         <v>52</v>
       </c>
       <c r="C14" s="6">
-        <f ca="1">move_alxe_loc!BA11</f>
-        <v>106</v>
+        <f ca="1">INDEX(move_alxe_loc!C35:T35,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="D14" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5098,7 +9263,7 @@
       </c>
       <c r="E14" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="F14" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5110,7 +9275,7 @@
       </c>
       <c r="H14" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="I14" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5124,15 +9289,15 @@
       </c>
       <c r="M14" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>106</v>
+        <v>-2.2000000000000028</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O14" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P14" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5140,11 +9305,11 @@
       </c>
       <c r="Q14" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="R14" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>5512</v>
+        <v>0</v>
       </c>
       <c r="S14" s="5">
         <f t="shared" ca="1" si="12"/>
@@ -5159,12 +9324,12 @@
         <v>52</v>
       </c>
       <c r="C15" s="6">
-        <f ca="1">move_alxe_loc!BA12</f>
-        <v>112</v>
+        <f ca="1">INDEX(move_alxe_loc!C36:T36,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>3.7999999999999972</v>
       </c>
       <c r="D15" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E15" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -5176,11 +9341,11 @@
       </c>
       <c r="G15" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>197.59999999999985</v>
       </c>
       <c r="H15" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5824</v>
+        <v>197.59999999999985</v>
       </c>
       <c r="I15" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5194,15 +9359,15 @@
       </c>
       <c r="M15" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>112</v>
+        <v>3.7999999999999972</v>
       </c>
       <c r="N15" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O15" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P15" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5210,11 +9375,11 @@
       </c>
       <c r="Q15" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>5824</v>
+        <v>0</v>
       </c>
       <c r="R15" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>5824</v>
+        <v>0</v>
       </c>
       <c r="S15" s="5">
         <f t="shared" ca="1" si="12"/>
@@ -5229,12 +9394,12 @@
         <v>52</v>
       </c>
       <c r="C16" s="6">
-        <f ca="1">move_alxe_loc!BA13</f>
-        <v>117</v>
+        <f ca="1">INDEX(move_alxe_loc!C37:T37,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>8.7999999999999972</v>
       </c>
       <c r="D16" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="E16" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -5246,11 +9411,11 @@
       </c>
       <c r="G16" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>457.59999999999985</v>
       </c>
       <c r="H16" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>6084</v>
+        <v>457.59999999999985</v>
       </c>
       <c r="I16" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5264,15 +9429,15 @@
       </c>
       <c r="M16" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>117</v>
+        <v>8.7999999999999972</v>
       </c>
       <c r="N16" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="O16" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="P16" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5280,18 +9445,18 @@
       </c>
       <c r="Q16" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>6084</v>
+        <v>0</v>
       </c>
       <c r="R16" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>6084</v>
+        <v>0</v>
       </c>
       <c r="S16" s="5">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <v>10</v>
       </c>
@@ -5299,12 +9464,12 @@
         <v>40</v>
       </c>
       <c r="C17" s="6">
-        <f ca="1">move_alxe_loc!BA14</f>
-        <v>125</v>
+        <f ca="1">INDEX(move_alxe_loc!C38:T38,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>16.799999999999997</v>
       </c>
       <c r="D17" s="5">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="E17" s="5">
         <f t="shared" ca="1" si="1"/>
@@ -5316,11 +9481,11 @@
       </c>
       <c r="G17" s="5">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>671.99999999999989</v>
       </c>
       <c r="H17" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>5000</v>
+        <v>671.99999999999989</v>
       </c>
       <c r="I17" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5334,34 +9499,35 @@
       </c>
       <c r="M17" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>125</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="N17" s="5">
         <f t="shared" ca="1" si="7"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="O17" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="P17" s="5">
         <f t="shared" ca="1" si="9"/>
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Q17" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="R17" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>5000</v>
+        <v>0</v>
       </c>
       <c r="S17" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>5000</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="T17" s="23"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <v>11</v>
       </c>
@@ -5369,8 +9535,8 @@
         <v>80</v>
       </c>
       <c r="C18" s="6">
-        <f ca="1">move_alxe_loc!BA15</f>
-        <v>133</v>
+        <f ca="1">INDEX(move_alxe_loc!C39:T39,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>24.799999999999997</v>
       </c>
       <c r="D18" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5378,7 +9544,7 @@
       </c>
       <c r="E18" s="5">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F18" s="5">
         <f t="shared" ca="1" si="2"/>
@@ -5390,7 +9556,7 @@
       </c>
       <c r="H18" s="5">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1983.9999999999998</v>
       </c>
       <c r="I18" s="5">
         <f t="shared" ca="1" si="5"/>
@@ -5404,7 +9570,7 @@
       </c>
       <c r="M18" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>133</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="N18" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5412,7 +9578,7 @@
       </c>
       <c r="O18" s="5">
         <f t="shared" ca="1" si="8"/>
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="P18" s="5">
         <f t="shared" ca="1" si="9"/>
@@ -5420,18 +9586,18 @@
       </c>
       <c r="Q18" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>10640</v>
+        <v>1983.9999999999998</v>
       </c>
       <c r="R18" s="5">
         <f t="shared" ca="1" si="11"/>
-        <v>0</v>
+        <v>1983.9999999999998</v>
       </c>
       <c r="S18" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>10640</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+        <v>1983.9999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="5">
         <v>12</v>
       </c>
@@ -5439,8 +9605,8 @@
         <v>80</v>
       </c>
       <c r="C19" s="6">
-        <f ca="1">move_alxe_loc!BA16</f>
-        <v>138</v>
+        <f ca="1">INDEX(move_alxe_loc!C40:T40,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>29.799999999999997</v>
       </c>
       <c r="D19" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5474,7 +9640,7 @@
       </c>
       <c r="M19" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>138</v>
+        <v>29.799999999999997</v>
       </c>
       <c r="N19" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5490,7 +9656,7 @@
       </c>
       <c r="Q19" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>11040</v>
+        <v>2384</v>
       </c>
       <c r="R19" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5498,10 +9664,10 @@
       </c>
       <c r="S19" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>11040</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="5">
         <v>13</v>
       </c>
@@ -5509,8 +9675,8 @@
         <v>80</v>
       </c>
       <c r="C20" s="6">
-        <f ca="1">move_alxe_loc!BA17</f>
-        <v>143</v>
+        <f ca="1">INDEX(move_alxe_loc!C41:T41,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>34.799999999999997</v>
       </c>
       <c r="D20" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5544,7 +9710,7 @@
       </c>
       <c r="M20" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>143</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="N20" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5560,7 +9726,7 @@
       </c>
       <c r="Q20" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>11440</v>
+        <v>2784</v>
       </c>
       <c r="R20" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5568,10 +9734,10 @@
       </c>
       <c r="S20" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>11440</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+        <v>2784</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="5">
         <v>14</v>
       </c>
@@ -5579,8 +9745,8 @@
         <v>80</v>
       </c>
       <c r="C21" s="6">
-        <f ca="1">move_alxe_loc!BA18</f>
-        <v>148</v>
+        <f ca="1">INDEX(move_alxe_loc!C42:T42,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>39.799999999999997</v>
       </c>
       <c r="D21" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5614,7 +9780,7 @@
       </c>
       <c r="M21" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>148</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="N21" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5630,7 +9796,7 @@
       </c>
       <c r="Q21" s="5">
         <f t="shared" ca="1" si="10"/>
-        <v>11840</v>
+        <v>3184</v>
       </c>
       <c r="R21" s="5">
         <f t="shared" ca="1" si="11"/>
@@ -5638,10 +9804,10 @@
       </c>
       <c r="S21" s="5">
         <f t="shared" ca="1" si="12"/>
-        <v>11840</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+        <v>3184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="5">
         <v>15</v>
       </c>
@@ -5649,8 +9815,8 @@
         <v>52</v>
       </c>
       <c r="C22" s="6">
-        <f ca="1">move_alxe_loc!BA19</f>
-        <v>157</v>
+        <f ca="1">INDEX(move_alxe_loc!C43:T43,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>48.8</v>
       </c>
       <c r="D22" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5684,7 +9850,7 @@
       </c>
       <c r="M22" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>157</v>
+        <v>48.8</v>
       </c>
       <c r="N22" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5711,7 +9877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="5">
         <v>16</v>
       </c>
@@ -5719,8 +9885,8 @@
         <v>52</v>
       </c>
       <c r="C23" s="6">
-        <f ca="1">move_alxe_loc!BA20</f>
-        <v>162</v>
+        <f ca="1">INDEX(move_alxe_loc!C44:T44,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>53.8</v>
       </c>
       <c r="D23" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5754,7 +9920,7 @@
       </c>
       <c r="M23" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>162</v>
+        <v>53.8</v>
       </c>
       <c r="N23" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5781,7 +9947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="5">
         <v>17</v>
       </c>
@@ -5789,8 +9955,8 @@
         <v>52</v>
       </c>
       <c r="C24" s="6">
-        <f ca="1">move_alxe_loc!BA21</f>
-        <v>168</v>
+        <f ca="1">INDEX(move_alxe_loc!C45:T45,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>59.8</v>
       </c>
       <c r="D24" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5824,7 +9990,7 @@
       </c>
       <c r="M24" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>168</v>
+        <v>59.8</v>
       </c>
       <c r="N24" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5851,7 +10017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
         <v>18</v>
       </c>
@@ -5859,8 +10025,8 @@
         <v>52</v>
       </c>
       <c r="C25" s="6">
-        <f ca="1">move_alxe_loc!BA22</f>
-        <v>173</v>
+        <f ca="1">INDEX(move_alxe_loc!C46:T46,MATCH(calc_load_and_location!$C$5,move_alxe_loc!$C$28:$T$28,0))</f>
+        <v>64.800000000000011</v>
       </c>
       <c r="D25" s="5">
         <f t="shared" ca="1" si="0"/>
@@ -5894,7 +10060,7 @@
       </c>
       <c r="M25" s="6">
         <f t="shared" ca="1" si="6"/>
-        <v>173</v>
+        <v>64.800000000000011</v>
       </c>
       <c r="N25" s="5">
         <f t="shared" ca="1" si="7"/>
@@ -5921,7 +10087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
       <c r="C26" s="5"/>
@@ -5941,17 +10107,17 @@
       <c r="R26" s="5"/>
       <c r="S26" s="5"/>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5">
         <f t="shared" ref="D27:I27" ca="1" si="13">SUM(D8:D25)</f>
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="E27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>608</v>
+        <v>224</v>
       </c>
       <c r="F27" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5959,11 +10125,11 @@
       </c>
       <c r="G27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>29800</v>
+        <v>1327.1999999999996</v>
       </c>
       <c r="H27" s="5">
         <f t="shared" ca="1" si="13"/>
-        <v>57472</v>
+        <v>3311.1999999999994</v>
       </c>
       <c r="I27" s="5">
         <f t="shared" ca="1" si="13"/>
@@ -5974,37 +10140,37 @@
       <c r="M27" s="5"/>
       <c r="N27" s="5">
         <f ca="1">SUM(N8:N25)</f>
-        <v>568</v>
+        <v>320</v>
       </c>
       <c r="O27" s="5">
         <f ca="1">SUM(O8:O25)</f>
-        <v>248</v>
+        <v>80</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" ref="N27:S27" ca="1" si="14">SUM(P8:P25)</f>
-        <v>360</v>
+        <f t="shared" ref="P27:S27" ca="1" si="14">SUM(P8:P25)</f>
+        <v>320</v>
       </c>
       <c r="Q27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>72632</v>
+        <v>10336</v>
       </c>
       <c r="R27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>27672</v>
+        <v>1983.9999999999998</v>
       </c>
       <c r="S27" s="5">
         <f t="shared" ca="1" si="14"/>
-        <v>49960</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+        <v>10336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="G29" s="7">
         <f ca="1">G27/D27</f>
-        <v>82.777777777777771</v>
+        <v>9.2166666666666632</v>
       </c>
       <c r="H29" s="7">
         <f ca="1">H27/E27</f>
-        <v>94.526315789473685</v>
+        <v>14.782142857142855</v>
       </c>
       <c r="I29" s="7" t="e">
         <f ca="1">I27/F27</f>
@@ -6012,47 +10178,47 @@
       </c>
       <c r="Q29" s="7">
         <f ca="1">Q27/N27</f>
-        <v>127.87323943661971</v>
+        <v>32.299999999999997</v>
       </c>
       <c r="R29" s="7">
         <f ca="1">R27/O27</f>
-        <v>111.58064516129032</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="S29" s="7">
         <f ca="1">S27/P27</f>
-        <v>138.77777777777777</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C31" s="9">
         <f ca="1">D27</f>
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="L31" s="1" t="s">
         <v>19</v>
       </c>
       <c r="M31" s="11">
         <f ca="1">N27</f>
-        <v>568</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="C32" s="9">
         <f ca="1">G29</f>
-        <v>82.777777777777771</v>
+        <v>9.2166666666666632</v>
       </c>
       <c r="L32" s="1" t="s">
         <v>25</v>
       </c>
       <c r="M32" s="11">
         <f ca="1">Q29</f>
-        <v>127.87323943661971</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="33" spans="2:13" x14ac:dyDescent="0.25">
@@ -6061,14 +10227,14 @@
       </c>
       <c r="C33" s="9">
         <f ca="1">E27</f>
-        <v>608</v>
+        <v>224</v>
       </c>
       <c r="L33" s="1" t="s">
         <v>20</v>
       </c>
       <c r="M33" s="11">
         <f ca="1">O27</f>
-        <v>248</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="2:13" x14ac:dyDescent="0.25">
@@ -6077,14 +10243,14 @@
       </c>
       <c r="C34" s="9">
         <f ca="1">H29</f>
-        <v>94.526315789473685</v>
+        <v>14.782142857142855</v>
       </c>
       <c r="L34" s="1" t="s">
         <v>26</v>
       </c>
       <c r="M34" s="11">
         <f ca="1">R29</f>
-        <v>111.58064516129032</v>
+        <v>24.799999999999997</v>
       </c>
     </row>
     <row r="35" spans="2:13" x14ac:dyDescent="0.25">
@@ -6100,7 +10266,7 @@
       </c>
       <c r="M35" s="11">
         <f ca="1">P27</f>
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="36" spans="2:13" x14ac:dyDescent="0.25">
@@ -6116,7 +10282,39 @@
       </c>
       <c r="M36" s="11">
         <f ca="1">S29</f>
-        <v>138.77777777777777</v>
+        <v>32.299999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C39" s="1">
+        <f ca="1">calc_shear!C7</f>
+        <v>66.359999999999985</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="M39" s="1">
+        <f ca="1">calc_shear!G7</f>
+        <v>123.20000000000005</v>
+      </c>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C40" s="1" t="e">
+        <f ca="1">calc_moment!C12</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="M40" s="1">
+        <f ca="1">calc_moment!J12</f>
+        <v>591.36000000000013</v>
       </c>
     </row>
   </sheetData>
@@ -6126,11 +10324,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6152,14 +10350,14 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">calc_load_and_location!C31</f>
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G2" s="2">
         <f ca="1">calc_load_and_location!M31</f>
-        <v>568</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -6168,14 +10366,14 @@
       </c>
       <c r="C3" s="2">
         <f ca="1">calc_load_and_location!C32</f>
-        <v>82.777777777777771</v>
+        <v>9.2166666666666632</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="G3" s="2">
         <f ca="1">calc_load_and_location!M32</f>
-        <v>127.87323943661971</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -6191,7 +10389,7 @@
       </c>
       <c r="G4" s="2">
         <f>input!C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -6200,14 +10398,14 @@
       </c>
       <c r="C5" s="2">
         <f>input!C5</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G5" s="2">
         <f>input!C7</f>
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -6232,14 +10430,14 @@
       </c>
       <c r="C8" s="5">
         <f>C5-C4</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>31</v>
       </c>
       <c r="G8" s="5">
         <f>G5-G4</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -6248,14 +10446,14 @@
       </c>
       <c r="C9" s="12">
         <f ca="1">IF(C8=0,0,IF(C6="ltr",C2*(C5-C3)/C8,IF(C6="rtl",C2*(C3-C4)/C8,"NA")))</f>
-        <v>297.99999999999994</v>
+        <v>66.359999999999985</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>32</v>
       </c>
       <c r="G9" s="12">
         <f ca="1">IF(G8=0,0,IF(G6="ltr",G2*(G5-G3)/G8,IF(G6="rtl",G2*(G3-G4)/G8,"NA")))</f>
-        <v>316.63999999999993</v>
+        <v>196.79999999999995</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -6264,14 +10462,14 @@
       </c>
       <c r="C10" s="12">
         <f ca="1">IF(C8=0,0,IF(C6="ltr",C2*(C3-C4)/C8,IF(C6="rtl",C2*(C5-C3)/C8,"NA")))</f>
-        <v>62.000000000000021</v>
+        <v>77.640000000000015</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>33</v>
       </c>
       <c r="G10" s="12">
         <f ca="1">IF(G8=0,0,IF(G6="ltr",G2*(G3-G4)/G8,IF(G6="rtl",G2*(G5-G3)/G8,"NA")))</f>
-        <v>251.36000000000007</v>
+        <v>123.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -6281,7 +10479,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6304,14 +10502,14 @@
       </c>
       <c r="C2" s="13">
         <f ca="1">calc_load_and_location!C31</f>
-        <v>360</v>
+        <v>144</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>36</v>
       </c>
       <c r="F2" s="1">
         <f>C7-C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6320,14 +10518,14 @@
       </c>
       <c r="C3" s="13">
         <f ca="1">calc_load_and_location!C32</f>
-        <v>82.777777777777771</v>
+        <v>9.2166666666666632</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="F3" s="1">
         <f>C9-C8</f>
-        <v>50</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6336,7 +10534,7 @@
       </c>
       <c r="C4" s="13">
         <f ca="1">calc_load_and_location!M31</f>
-        <v>568</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,7 +10543,7 @@
       </c>
       <c r="C5" s="13">
         <f ca="1">calc_load_and_location!M32</f>
-        <v>127.87323943661971</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6363,7 +10561,7 @@
       </c>
       <c r="C7" s="13">
         <f>input!C5</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6372,7 +10570,7 @@
       </c>
       <c r="C8" s="13">
         <f>input!C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6381,7 +10579,7 @@
       </c>
       <c r="C9" s="13">
         <f>input!C7</f>
-        <v>150</v>
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6390,7 +10588,7 @@
       </c>
       <c r="C11" s="10">
         <f ca="1">IF(F3&gt;0, C2*(C3-C6)/F2+C4*(C9-C5)/F3, 0)</f>
-        <v>549.36</v>
+        <v>189.56000000000003</v>
       </c>
     </row>
   </sheetData>
@@ -6400,11 +10598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6426,14 +10624,14 @@
       </c>
       <c r="C2" s="15">
         <f ca="1">calc_reactions!C9</f>
-        <v>297.99999999999994</v>
+        <v>66.359999999999985</v>
       </c>
       <c r="F2" s="14" t="s">
         <v>32</v>
       </c>
       <c r="G2" s="15">
         <f ca="1">calc_reactions!G9</f>
-        <v>316.63999999999993</v>
+        <v>196.79999999999995</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -6449,7 +10647,7 @@
       </c>
       <c r="G3" s="15">
         <f ca="1">calc_load_and_location!M35</f>
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -6458,14 +10656,14 @@
       </c>
       <c r="C4" s="15">
         <f ca="1">calc_load_and_location!C33</f>
-        <v>608</v>
+        <v>224</v>
       </c>
       <c r="F4" s="14" t="s">
         <v>20</v>
       </c>
       <c r="G4" s="15">
         <f ca="1">calc_load_and_location!M33</f>
-        <v>248</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -6490,14 +10688,14 @@
       </c>
       <c r="C7" s="16">
         <f ca="1">IF(C5="ltr", C4-C2, IF(C5="rtl",ABS(C3-C2), "NA"))</f>
-        <v>297.99999999999994</v>
+        <v>66.359999999999985</v>
       </c>
       <c r="F7" s="14" t="s">
         <v>48</v>
       </c>
       <c r="G7" s="16">
         <f ca="1">IF(G5="ltr", G4-G2, IF(G5="rtl",ABS(G3-G2), "NA"))</f>
-        <v>43.36000000000007</v>
+        <v>123.20000000000005</v>
       </c>
     </row>
   </sheetData>
@@ -6511,11 +10709,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N20" sqref="N20"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -6541,28 +10739,28 @@
       </c>
       <c r="C2" s="18">
         <f>input!C3</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="F2" s="17">
         <f ca="1">C2-C3</f>
-        <v>30.473684210526315</v>
+        <v>10.017857142857146</v>
       </c>
       <c r="I2" s="17" t="s">
         <v>1</v>
       </c>
       <c r="J2" s="18">
         <f>input!C3</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
       <c r="L2" s="17" t="s">
         <v>50</v>
       </c>
       <c r="M2" s="17">
         <f ca="1">J2-J3</f>
-        <v>13.41935483870968</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
@@ -6571,28 +10769,28 @@
       </c>
       <c r="C3" s="18">
         <f ca="1">calc_load_and_location!C34</f>
-        <v>94.526315789473685</v>
+        <v>14.782142857142855</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F3" s="17">
         <f>C2-C5</f>
-        <v>125</v>
+        <v>24.8</v>
       </c>
       <c r="I3" s="17" t="s">
         <v>26</v>
       </c>
       <c r="J3" s="18">
         <f ca="1">calc_load_and_location!M34</f>
-        <v>111.58064516129032</v>
+        <v>24.799999999999997</v>
       </c>
       <c r="L3" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M3" s="17">
         <f>J2-J5</f>
-        <v>25</v>
+        <v>4.8000000000000007</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -6608,7 +10806,7 @@
       </c>
       <c r="J4" s="18">
         <f ca="1">calc_load_and_location!M36</f>
-        <v>138.77777777777777</v>
+        <v>32.299999999999997</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -6631,14 +10829,14 @@
       </c>
       <c r="J5" s="18">
         <f>input!C6</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="L5" s="17" t="s">
         <v>52</v>
       </c>
       <c r="M5" s="17">
         <f ca="1">J4-J2</f>
-        <v>13.777777777777771</v>
+        <v>7.4999999999999964</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -6647,28 +10845,28 @@
       </c>
       <c r="C6" s="18">
         <f>input!C5</f>
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="E6" s="17" t="s">
         <v>51</v>
       </c>
       <c r="F6" s="17">
         <f>C6-C2</f>
-        <v>-25</v>
+        <v>-4.8000000000000007</v>
       </c>
       <c r="I6" s="17" t="s">
         <v>30</v>
       </c>
       <c r="J6" s="18">
         <f>input!C7</f>
-        <v>150</v>
+        <v>40</v>
       </c>
       <c r="L6" s="17" t="s">
         <v>51</v>
       </c>
       <c r="M6" s="17">
         <f>J6-J2</f>
-        <v>25</v>
+        <v>15.2</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -6677,14 +10875,14 @@
       </c>
       <c r="C7" s="18">
         <f ca="1">calc_reactions!C9</f>
-        <v>297.99999999999994</v>
+        <v>66.359999999999985</v>
       </c>
       <c r="I7" s="17" t="s">
         <v>32</v>
       </c>
       <c r="J7" s="18">
         <f ca="1">calc_reactions!G9</f>
-        <v>316.63999999999993</v>
+        <v>196.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -6693,14 +10891,14 @@
       </c>
       <c r="C8" s="18">
         <f ca="1">calc_load_and_location!C33</f>
-        <v>608</v>
+        <v>224</v>
       </c>
       <c r="I8" s="17" t="s">
         <v>20</v>
       </c>
       <c r="J8" s="18">
         <f ca="1">calc_load_and_location!M33</f>
-        <v>248</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
@@ -6716,7 +10914,7 @@
       </c>
       <c r="J9" s="18">
         <f ca="1">calc_load_and_location!M35</f>
-        <v>360</v>
+        <v>320</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
@@ -6748,7 +10946,7 @@
       </c>
       <c r="J12" s="21">
         <f ca="1">IF(J10="ltr",J7*M3-J8*M2, IF(J10="rtl",J7*M6-J9*M5,"NA"))</f>
-        <v>2956</v>
+        <v>591.36000000000013</v>
       </c>
     </row>
   </sheetData>
